--- a/Pitchers Test Set.xlsx
+++ b/Pitchers Test Set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jess/Desktop/D20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{432F8480-DBFE-9340-A440-38CD3AC61BB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAA27C67-311D-1B4A-9D58-4AFB7E54390C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{5DAB7A6F-241F-AA4C-8B8E-78DD2B390A79}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="1849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="1849">
   <si>
     <t>Name</t>
   </si>
@@ -5990,7 +5990,7 @@
   <dimension ref="A1:E509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E510" sqref="E510"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6024,15 +6024,12 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP(A2,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(A2,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="E2" s="7">
-        <f>VLOOKUP(A2,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>100000</v>
       </c>
     </row>
@@ -6044,15 +6041,12 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="C3">
-        <f>VLOOKUP(A3,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(A3,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E3" s="7">
-        <f>VLOOKUP(A3,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>556725</v>
       </c>
     </row>
@@ -6064,15 +6058,12 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <f>VLOOKUP(A4,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP(A4,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E4" s="7">
-        <f>VLOOKUP(A4,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1300000</v>
       </c>
     </row>
@@ -6084,15 +6075,12 @@
         <v>5.13</v>
       </c>
       <c r="C5">
-        <f>VLOOKUP(A5,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>14</v>
       </c>
       <c r="D5">
-        <f>VLOOKUP(A5,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E5" s="7">
-        <f>VLOOKUP(A5,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2500000</v>
       </c>
     </row>
@@ -6104,15 +6092,12 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <f>VLOOKUP(A6,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D6">
-        <f>VLOOKUP(A6,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.9</v>
       </c>
       <c r="E6" s="7">
-        <f>VLOOKUP(A6,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>578000</v>
       </c>
     </row>
@@ -6124,15 +6109,12 @@
         <v>3.88</v>
       </c>
       <c r="C7">
-        <f>VLOOKUP(A7,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D7">
-        <f>VLOOKUP(A7,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.8</v>
       </c>
       <c r="E7" s="7">
-        <f>VLOOKUP(A7,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -6144,15 +6126,12 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="C8">
-        <f>VLOOKUP(A8,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D8">
-        <f>VLOOKUP(A8,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.4</v>
       </c>
       <c r="E8" s="7">
-        <f>VLOOKUP(A8,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>559100</v>
       </c>
     </row>
@@ -6164,15 +6143,12 @@
         <v>3.63</v>
       </c>
       <c r="C9">
-        <f>VLOOKUP(A9,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D9">
-        <f>VLOOKUP(A9,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E9" s="7">
-        <f>VLOOKUP(A9,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>575000</v>
       </c>
     </row>
@@ -6184,15 +6160,12 @@
         <v>6.26</v>
       </c>
       <c r="C10">
-        <f>VLOOKUP(A10,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D10">
-        <f>VLOOKUP(A10,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E10" s="7">
-        <f>VLOOKUP(A10,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>8500000</v>
       </c>
     </row>
@@ -6204,15 +6177,12 @@
         <v>4.8</v>
       </c>
       <c r="C11">
-        <f>VLOOKUP(A11,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D11">
-        <f>VLOOKUP(A11,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E11" s="7">
-        <f>VLOOKUP(A11,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>570600</v>
       </c>
     </row>
@@ -6224,15 +6194,12 @@
         <v>3.36</v>
       </c>
       <c r="C12">
-        <f>VLOOKUP(A12,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP(A12,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.8</v>
       </c>
       <c r="E12" s="7">
-        <f>VLOOKUP(A12,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1925000</v>
       </c>
     </row>
@@ -6244,15 +6211,12 @@
         <v>3.89</v>
       </c>
       <c r="C13">
-        <f>VLOOKUP(A13,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="D13">
-        <f>VLOOKUP(A13,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.8</v>
       </c>
       <c r="E13" s="7">
-        <f>VLOOKUP(A13,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1500000</v>
       </c>
     </row>
@@ -6264,15 +6228,12 @@
         <v>4.21</v>
       </c>
       <c r="C14">
-        <f>VLOOKUP(A14,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D14">
-        <f>VLOOKUP(A14,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.7</v>
       </c>
       <c r="E14" s="7">
-        <f>VLOOKUP(A14,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>6500000</v>
       </c>
     </row>
@@ -6284,15 +6245,12 @@
         <v>9.35</v>
       </c>
       <c r="C15">
-        <f>VLOOKUP(A15,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D15">
-        <f>VLOOKUP(A15,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E15" s="7">
-        <f>VLOOKUP(A15,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>641250</v>
       </c>
     </row>
@@ -6304,15 +6262,12 @@
         <v>5.55</v>
       </c>
       <c r="C16">
-        <f>VLOOKUP(A16,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D16">
-        <f>VLOOKUP(A16,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E16" s="7">
-        <f>VLOOKUP(A16,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>561500</v>
       </c>
     </row>
@@ -6324,15 +6279,12 @@
         <v>11.76</v>
       </c>
       <c r="C17">
-        <f>VLOOKUP(A17,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D17">
-        <f>VLOOKUP(A17,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.9</v>
       </c>
       <c r="E17" s="7">
-        <f>VLOOKUP(A17,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2625000</v>
       </c>
     </row>
@@ -6344,15 +6296,12 @@
         <v>4.71</v>
       </c>
       <c r="C18">
-        <f>VLOOKUP(A18,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D18">
-        <f>VLOOKUP(A18,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E18" s="7">
-        <f>VLOOKUP(A18,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>920000</v>
       </c>
     </row>
@@ -6364,15 +6313,12 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <f>VLOOKUP(A19,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D19">
-        <f>VLOOKUP(A19,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E19" s="7">
-        <f>VLOOKUP(A19,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>557000</v>
       </c>
     </row>
@@ -6384,15 +6330,12 @@
         <v>5.19</v>
       </c>
       <c r="C20">
-        <f>VLOOKUP(A20,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D20">
-        <f>VLOOKUP(A20,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.9</v>
       </c>
       <c r="E20" s="7">
-        <f>VLOOKUP(A20,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>7666667</v>
       </c>
     </row>
@@ -6404,15 +6347,12 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="C21">
-        <f>VLOOKUP(A21,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D21">
-        <f>VLOOKUP(A21,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.9</v>
       </c>
       <c r="E21" s="7">
-        <f>VLOOKUP(A21,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>25000000</v>
       </c>
     </row>
@@ -6424,15 +6364,12 @@
         <v>4.5</v>
       </c>
       <c r="C22">
-        <f>VLOOKUP(A22,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="D22">
-        <f>VLOOKUP(A22,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.4</v>
       </c>
       <c r="E22" s="7">
-        <f>VLOOKUP(A22,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>4250000</v>
       </c>
     </row>
@@ -6444,15 +6381,12 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="C23">
-        <f>VLOOKUP(A23,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D23">
-        <f>VLOOKUP(A23,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E23" s="7">
-        <f>VLOOKUP(A23,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1600000</v>
       </c>
     </row>
@@ -6464,15 +6398,12 @@
         <v>3.1</v>
       </c>
       <c r="C24">
-        <f>VLOOKUP(A24,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP(A24,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.3</v>
       </c>
       <c r="E24" s="7">
-        <f>VLOOKUP(A24,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2100000</v>
       </c>
     </row>
@@ -6484,15 +6415,12 @@
         <v>4.57</v>
       </c>
       <c r="C25">
-        <f>VLOOKUP(A25,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>13</v>
       </c>
       <c r="D25">
-        <f>VLOOKUP(A25,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E25" s="7">
-        <f>VLOOKUP(A25,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>100000</v>
       </c>
     </row>
@@ -6504,15 +6432,12 @@
         <v>4.8</v>
       </c>
       <c r="C26">
-        <f>VLOOKUP(A26,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>13</v>
       </c>
       <c r="D26">
-        <f>VLOOKUP(A26,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E26" s="7">
-        <f>VLOOKUP(A26,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>100000</v>
       </c>
     </row>
@@ -6524,15 +6449,12 @@
         <v>4.3</v>
       </c>
       <c r="C27">
-        <f>VLOOKUP(A27,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>13</v>
       </c>
       <c r="D27">
-        <f>VLOOKUP(A27,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E27" s="7">
-        <f>VLOOKUP(A27,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>100000</v>
       </c>
     </row>
@@ -6544,15 +6466,12 @@
         <v>6.75</v>
       </c>
       <c r="C28">
-        <f>VLOOKUP(A28,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D28">
-        <f>VLOOKUP(A28,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E28" s="7">
-        <f>VLOOKUP(A28,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>556800</v>
       </c>
     </row>
@@ -6564,15 +6483,12 @@
         <v>6.93</v>
       </c>
       <c r="C29">
-        <f>VLOOKUP(A29,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D29">
-        <f>VLOOKUP(A29,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E29" s="7">
-        <f>VLOOKUP(A29,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>559000</v>
       </c>
     </row>
@@ -6584,15 +6500,12 @@
         <v>4.78</v>
       </c>
       <c r="C30">
-        <f>VLOOKUP(A30,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D30">
-        <f>VLOOKUP(A30,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E30" s="7">
-        <f>VLOOKUP(A30,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>575000</v>
       </c>
     </row>
@@ -6604,15 +6517,12 @@
         <v>4.22</v>
       </c>
       <c r="C31">
-        <f>VLOOKUP(A31,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D31">
-        <f>VLOOKUP(A31,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.9</v>
       </c>
       <c r="E31" s="7">
-        <f>VLOOKUP(A31,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>650000</v>
       </c>
     </row>
@@ -6624,15 +6534,12 @@
         <v>3.78</v>
       </c>
       <c r="C32">
-        <f>VLOOKUP(A32,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D32">
-        <f>VLOOKUP(A32,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.3</v>
       </c>
       <c r="E32" s="7">
-        <f>VLOOKUP(A32,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1600000</v>
       </c>
     </row>
@@ -6644,15 +6551,12 @@
         <v>6.75</v>
       </c>
       <c r="C33">
-        <f>VLOOKUP(A33,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D33">
-        <f>VLOOKUP(A33,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E33" s="7">
-        <f>VLOOKUP(A33,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>750000</v>
       </c>
     </row>
@@ -6664,15 +6568,12 @@
         <v>5.61</v>
       </c>
       <c r="C34">
-        <f>VLOOKUP(A34,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D34">
-        <f>VLOOKUP(A34,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E34" s="7">
-        <f>VLOOKUP(A34,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1725000</v>
       </c>
     </row>
@@ -6684,15 +6585,12 @@
         <v>6.66</v>
       </c>
       <c r="C35">
-        <f>VLOOKUP(A35,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D35">
-        <f>VLOOKUP(A35,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E35" s="7">
-        <f>VLOOKUP(A35,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1725000</v>
       </c>
     </row>
@@ -6704,15 +6602,12 @@
         <v>2.25</v>
       </c>
       <c r="C36">
-        <f>VLOOKUP(A36,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D36">
-        <f>VLOOKUP(A36,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E36" s="7">
-        <f>VLOOKUP(A36,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1725000</v>
       </c>
     </row>
@@ -6724,15 +6619,12 @@
         <v>3.81</v>
       </c>
       <c r="C37">
-        <f>VLOOKUP(A37,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D37">
-        <f>VLOOKUP(A37,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.9</v>
       </c>
       <c r="E37" s="7">
-        <f>VLOOKUP(A37,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>565000</v>
       </c>
     </row>
@@ -6744,15 +6636,12 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="C38">
-        <f>VLOOKUP(A38,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D38">
-        <f>VLOOKUP(A38,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.6</v>
       </c>
       <c r="E38" s="7">
-        <f>VLOOKUP(A38,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>13000000</v>
       </c>
     </row>
@@ -6764,15 +6653,12 @@
         <v>3.79</v>
       </c>
       <c r="C39">
-        <f>VLOOKUP(A39,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D39">
-        <f>VLOOKUP(A39,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.6</v>
       </c>
       <c r="E39" s="7">
-        <f>VLOOKUP(A39,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>13000000</v>
       </c>
     </row>
@@ -6784,15 +6670,12 @@
         <v>6.39</v>
       </c>
       <c r="C40">
-        <f>VLOOKUP(A40,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D40">
-        <f>VLOOKUP(A40,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.6</v>
       </c>
       <c r="E40" s="7">
-        <f>VLOOKUP(A40,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>13000000</v>
       </c>
     </row>
@@ -6804,15 +6687,12 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <f>VLOOKUP(A41,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D41">
-        <f>VLOOKUP(A41,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E41" s="7">
-        <f>VLOOKUP(A41,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555200</v>
       </c>
     </row>
@@ -6824,15 +6704,12 @@
         <v>3.23</v>
       </c>
       <c r="C42">
-        <f>VLOOKUP(A42,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D42">
-        <f>VLOOKUP(A42,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.6</v>
       </c>
       <c r="E42" s="7">
-        <f>VLOOKUP(A42,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1750000</v>
       </c>
     </row>
@@ -6844,15 +6721,12 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="C43">
-        <f>VLOOKUP(A43,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D43">
-        <f>VLOOKUP(A43,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E43" s="7">
-        <f>VLOOKUP(A43,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>556500</v>
       </c>
     </row>
@@ -6863,16 +6737,13 @@
       <c r="B44">
         <v>5.49</v>
       </c>
-      <c r="C44" t="str">
-        <f>VLOOKUP(A44,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
-        <v>1st</v>
+      <c r="C44" t="s">
+        <v>349</v>
       </c>
       <c r="D44">
-        <f>VLOOKUP(A44,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E44" s="7">
-        <f>VLOOKUP(A44,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -6884,15 +6755,12 @@
         <v>3.68</v>
       </c>
       <c r="C45">
-        <f>VLOOKUP(A45,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D45">
-        <f>VLOOKUP(A45,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3.3</v>
       </c>
       <c r="E45" s="7">
-        <f>VLOOKUP(A45,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>620000</v>
       </c>
     </row>
@@ -6904,15 +6772,12 @@
         <v>6.08</v>
       </c>
       <c r="C46">
-        <f>VLOOKUP(A46,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D46">
-        <f>VLOOKUP(A46,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E46" s="7">
-        <f>VLOOKUP(A46,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3350000</v>
       </c>
     </row>
@@ -6924,15 +6789,12 @@
         <v>4.59</v>
       </c>
       <c r="C47">
-        <f>VLOOKUP(A47,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D47">
-        <f>VLOOKUP(A47,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E47" s="7">
-        <f>VLOOKUP(A47,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>900000</v>
       </c>
     </row>
@@ -6944,15 +6806,12 @@
         <v>3.78</v>
       </c>
       <c r="C48">
-        <f>VLOOKUP(A48,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D48">
-        <f>VLOOKUP(A48,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E48" s="7">
-        <f>VLOOKUP(A48,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>900000</v>
       </c>
     </row>
@@ -6964,15 +6823,12 @@
         <v>7.36</v>
       </c>
       <c r="C49">
-        <f>VLOOKUP(A49,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D49">
-        <f>VLOOKUP(A49,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E49" s="7">
-        <f>VLOOKUP(A49,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>900000</v>
       </c>
     </row>
@@ -6984,15 +6840,12 @@
         <v>3.28</v>
       </c>
       <c r="C50">
-        <f>VLOOKUP(A50,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D50">
-        <f>VLOOKUP(A50,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>4.5</v>
       </c>
       <c r="E50" s="7">
-        <f>VLOOKUP(A50,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>559600</v>
       </c>
     </row>
@@ -7003,16 +6856,13 @@
       <c r="B51">
         <v>7.82</v>
       </c>
-      <c r="C51" t="str">
-        <f>VLOOKUP(A51,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
-        <v>1st</v>
+      <c r="C51" t="s">
+        <v>349</v>
       </c>
       <c r="D51">
-        <f>VLOOKUP(A51,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E51" s="7">
-        <f>VLOOKUP(A51,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -7024,15 +6874,12 @@
         <v>5.37</v>
       </c>
       <c r="C52">
-        <f>VLOOKUP(A52,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D52">
-        <f>VLOOKUP(A52,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.4</v>
       </c>
       <c r="E52" s="7">
-        <f>VLOOKUP(A52,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>572500</v>
       </c>
     </row>
@@ -7044,15 +6891,12 @@
         <v>10.8</v>
       </c>
       <c r="C53">
-        <f>VLOOKUP(A53,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D53">
-        <f>VLOOKUP(A53,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E53" s="7">
-        <f>VLOOKUP(A53,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>565200</v>
       </c>
     </row>
@@ -7064,15 +6908,12 @@
         <v>5.4</v>
       </c>
       <c r="C54">
-        <f>VLOOKUP(A54,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D54">
-        <f>VLOOKUP(A54,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E54" s="7">
-        <f>VLOOKUP(A54,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2200000</v>
       </c>
     </row>
@@ -7084,15 +6925,12 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="C55">
-        <f>VLOOKUP(A55,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D55">
-        <f>VLOOKUP(A55,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3.7</v>
       </c>
       <c r="E55" s="7">
-        <f>VLOOKUP(A55,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2600000</v>
       </c>
     </row>
@@ -7104,15 +6942,12 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="C56">
-        <f>VLOOKUP(A56,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D56">
-        <f>VLOOKUP(A56,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="E56" s="7">
-        <f>VLOOKUP(A56,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>562300</v>
       </c>
     </row>
@@ -7124,15 +6959,12 @@
         <v>3.52</v>
       </c>
       <c r="C57">
-        <f>VLOOKUP(A57,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D57">
-        <f>VLOOKUP(A57,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.9</v>
       </c>
       <c r="E57" s="7">
-        <f>VLOOKUP(A57,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1830000</v>
       </c>
     </row>
@@ -7144,15 +6976,12 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="C58">
-        <f>VLOOKUP(A58,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D58">
-        <f>VLOOKUP(A58,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E58" s="7">
-        <f>VLOOKUP(A58,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>577500</v>
       </c>
     </row>
@@ -7164,15 +6993,12 @@
         <v>5.16</v>
       </c>
       <c r="C59">
-        <f>VLOOKUP(A59,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D59">
-        <f>VLOOKUP(A59,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.4</v>
       </c>
       <c r="E59" s="7">
-        <f>VLOOKUP(A59,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>574500</v>
       </c>
     </row>
@@ -7184,15 +7010,12 @@
         <v>3.59</v>
       </c>
       <c r="C60">
-        <f>VLOOKUP(A60,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D60">
-        <f>VLOOKUP(A60,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.8</v>
       </c>
       <c r="E60" s="7">
-        <f>VLOOKUP(A60,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>569300</v>
       </c>
     </row>
@@ -7203,16 +7026,13 @@
       <c r="B61">
         <v>4.5599999999999996</v>
       </c>
-      <c r="C61" t="str">
-        <f>VLOOKUP(A61,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
-        <v>1st</v>
+      <c r="C61" t="s">
+        <v>349</v>
       </c>
       <c r="D61">
-        <f>VLOOKUP(A61,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="E61" s="7">
-        <f>VLOOKUP(A61,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>575000</v>
       </c>
     </row>
@@ -7224,15 +7044,12 @@
         <v>4.12</v>
       </c>
       <c r="C62">
-        <f>VLOOKUP(A62,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D62">
-        <f>VLOOKUP(A62,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.9</v>
       </c>
       <c r="E62" s="7">
-        <f>VLOOKUP(A62,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>557000</v>
       </c>
     </row>
@@ -7244,15 +7061,12 @@
         <v>3.43</v>
       </c>
       <c r="C63">
-        <f>VLOOKUP(A63,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D63">
-        <f>VLOOKUP(A63,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.4</v>
       </c>
       <c r="E63" s="7">
-        <f>VLOOKUP(A63,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -7264,15 +7078,12 @@
         <v>1.91</v>
       </c>
       <c r="C64">
-        <f>VLOOKUP(A64,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D64">
-        <f>VLOOKUP(A64,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.5</v>
       </c>
       <c r="E64" s="7">
-        <f>VLOOKUP(A64,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>13000000</v>
       </c>
     </row>
@@ -7284,15 +7095,12 @@
         <v>6.56</v>
       </c>
       <c r="C65">
-        <f>VLOOKUP(A65,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>13</v>
       </c>
       <c r="D65">
-        <f>VLOOKUP(A65,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E65" s="7">
-        <f>VLOOKUP(A65,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3000000</v>
       </c>
     </row>
@@ -7304,15 +7112,12 @@
         <v>2.98</v>
       </c>
       <c r="C66">
-        <f>VLOOKUP(A66,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D66">
-        <f>VLOOKUP(A66,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E66" s="7">
-        <f>VLOOKUP(A66,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1400000</v>
       </c>
     </row>
@@ -7324,15 +7129,12 @@
         <v>3.26</v>
       </c>
       <c r="C67">
-        <f>VLOOKUP(A67,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D67">
-        <f>VLOOKUP(A67,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E67" s="7">
-        <f>VLOOKUP(A67,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>570000</v>
       </c>
     </row>
@@ -7344,15 +7146,12 @@
         <v>3.9</v>
       </c>
       <c r="C68">
-        <f>VLOOKUP(A68,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="D68">
-        <f>VLOOKUP(A68,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.9</v>
       </c>
       <c r="E68" s="7">
-        <f>VLOOKUP(A68,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>12000000</v>
       </c>
     </row>
@@ -7364,15 +7163,12 @@
         <v>4.79</v>
       </c>
       <c r="C69">
-        <f>VLOOKUP(A69,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D69">
-        <f>VLOOKUP(A69,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.5</v>
       </c>
       <c r="E69" s="7">
-        <f>VLOOKUP(A69,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2800000</v>
       </c>
     </row>
@@ -7384,15 +7180,12 @@
         <v>9.35</v>
       </c>
       <c r="C70">
-        <f>VLOOKUP(A70,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D70">
-        <f>VLOOKUP(A70,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E70" s="7">
-        <f>VLOOKUP(A70,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>559000</v>
       </c>
     </row>
@@ -7404,15 +7197,12 @@
         <v>8.82</v>
       </c>
       <c r="C71">
-        <f>VLOOKUP(A71,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D71">
-        <f>VLOOKUP(A71,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-2.2000000000000002</v>
       </c>
       <c r="E71" s="7">
-        <f>VLOOKUP(A71,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>562800</v>
       </c>
     </row>
@@ -7424,15 +7214,12 @@
         <v>4.58</v>
       </c>
       <c r="C72">
-        <f>VLOOKUP(A72,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D72">
-        <f>VLOOKUP(A72,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E72" s="7">
-        <f>VLOOKUP(A72,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>556000</v>
       </c>
     </row>
@@ -7444,15 +7231,12 @@
         <v>3.98</v>
       </c>
       <c r="C73">
-        <f>VLOOKUP(A73,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D73">
-        <f>VLOOKUP(A73,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.9</v>
       </c>
       <c r="E73" s="7">
-        <f>VLOOKUP(A73,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>557250</v>
       </c>
     </row>
@@ -7464,15 +7248,12 @@
         <v>5.98</v>
       </c>
       <c r="C74">
-        <f>VLOOKUP(A74,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="D74">
-        <f>VLOOKUP(A74,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E74" s="7">
-        <f>VLOOKUP(A74,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>9000000</v>
       </c>
     </row>
@@ -7484,15 +7265,12 @@
         <v>9</v>
       </c>
       <c r="C75">
-        <f>VLOOKUP(A75,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D75">
-        <f>VLOOKUP(A75,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.9</v>
       </c>
       <c r="E75" s="7">
-        <f>VLOOKUP(A75,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>569500</v>
       </c>
     </row>
@@ -7504,15 +7282,12 @@
         <v>9.64</v>
       </c>
       <c r="C76">
-        <f>VLOOKUP(A76,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D76">
-        <f>VLOOKUP(A76,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E76" s="7">
-        <f>VLOOKUP(A76,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>575000</v>
       </c>
     </row>
@@ -7524,15 +7299,12 @@
         <v>5.29</v>
       </c>
       <c r="C77">
-        <f>VLOOKUP(A77,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D77">
-        <f>VLOOKUP(A77,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="E77" s="7">
-        <f>VLOOKUP(A77,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>9750000</v>
       </c>
     </row>
@@ -7544,15 +7316,12 @@
         <v>3.41</v>
       </c>
       <c r="C78">
-        <f>VLOOKUP(A78,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D78">
-        <f>VLOOKUP(A78,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="E78" s="7">
-        <f>VLOOKUP(A78,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>561500</v>
       </c>
     </row>
@@ -7564,15 +7333,12 @@
         <v>3.4</v>
       </c>
       <c r="C79">
-        <f>VLOOKUP(A79,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D79">
-        <f>VLOOKUP(A79,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>4.2</v>
       </c>
       <c r="E79" s="7">
-        <f>VLOOKUP(A79,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>557500</v>
       </c>
     </row>
@@ -7584,15 +7350,12 @@
         <v>4.66</v>
       </c>
       <c r="C80">
-        <f>VLOOKUP(A80,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D80">
-        <f>VLOOKUP(A80,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E80" s="7">
-        <f>VLOOKUP(A80,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>569000</v>
       </c>
     </row>
@@ -7604,15 +7367,12 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="C81">
-        <f>VLOOKUP(A81,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D81">
-        <f>VLOOKUP(A81,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="E81" s="7">
-        <f>VLOOKUP(A81,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>578975</v>
       </c>
     </row>
@@ -7624,15 +7384,12 @@
         <v>3.76</v>
       </c>
       <c r="C82">
-        <f>VLOOKUP(A82,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D82">
-        <f>VLOOKUP(A82,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E82" s="7">
-        <f>VLOOKUP(A82,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1945000</v>
       </c>
     </row>
@@ -7644,15 +7401,12 @@
         <v>2.21</v>
       </c>
       <c r="C83">
-        <f>VLOOKUP(A83,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D83">
-        <f>VLOOKUP(A83,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.6</v>
       </c>
       <c r="E83" s="7">
-        <f>VLOOKUP(A83,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>17200000</v>
       </c>
     </row>
@@ -7664,15 +7418,12 @@
         <v>3.76</v>
       </c>
       <c r="C84">
-        <f>VLOOKUP(A84,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D84">
-        <f>VLOOKUP(A84,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.6</v>
       </c>
       <c r="E84" s="7">
-        <f>VLOOKUP(A84,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>12500000</v>
       </c>
     </row>
@@ -7684,15 +7435,12 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="C85">
-        <f>VLOOKUP(A85,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="D85">
-        <f>VLOOKUP(A85,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.8</v>
       </c>
       <c r="E85" s="7">
-        <f>VLOOKUP(A85,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>4000000</v>
       </c>
     </row>
@@ -7704,15 +7452,12 @@
         <v>6.59</v>
       </c>
       <c r="C86">
-        <f>VLOOKUP(A86,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D86">
-        <f>VLOOKUP(A86,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1.1000000000000001</v>
       </c>
       <c r="E86" s="7">
-        <f>VLOOKUP(A86,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>20000000</v>
       </c>
     </row>
@@ -7724,15 +7469,12 @@
         <v>3.85</v>
       </c>
       <c r="C87">
-        <f>VLOOKUP(A87,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D87">
-        <f>VLOOKUP(A87,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.1</v>
       </c>
       <c r="E87" s="7">
-        <f>VLOOKUP(A87,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>561800</v>
       </c>
     </row>
@@ -7744,15 +7486,12 @@
         <v>4.45</v>
       </c>
       <c r="C88">
-        <f>VLOOKUP(A88,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D88">
-        <f>VLOOKUP(A88,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E88" s="7">
-        <f>VLOOKUP(A88,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>563800</v>
       </c>
     </row>
@@ -7764,15 +7503,12 @@
         <v>2.95</v>
       </c>
       <c r="C89">
-        <f>VLOOKUP(A89,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D89">
-        <f>VLOOKUP(A89,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.9</v>
       </c>
       <c r="E89" s="7">
-        <f>VLOOKUP(A89,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>6500000</v>
       </c>
     </row>
@@ -7784,15 +7520,12 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="C90">
-        <f>VLOOKUP(A90,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D90">
-        <f>VLOOKUP(A90,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.6</v>
       </c>
       <c r="E90" s="7">
-        <f>VLOOKUP(A90,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1275000</v>
       </c>
     </row>
@@ -7804,15 +7537,12 @@
         <v>2.71</v>
       </c>
       <c r="C91">
-        <f>VLOOKUP(A91,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D91">
-        <f>VLOOKUP(A91,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="E91" s="7">
-        <f>VLOOKUP(A91,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>592200</v>
       </c>
     </row>
@@ -7824,15 +7554,12 @@
         <v>2.9</v>
       </c>
       <c r="C92">
-        <f>VLOOKUP(A92,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>13</v>
       </c>
       <c r="D92">
-        <f>VLOOKUP(A92,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.3</v>
       </c>
       <c r="E92" s="7">
-        <f>VLOOKUP(A92,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>100000</v>
       </c>
     </row>
@@ -7844,15 +7571,12 @@
         <v>10.95</v>
       </c>
       <c r="C93">
-        <f>VLOOKUP(A93,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D93">
-        <f>VLOOKUP(A93,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E93" s="7">
-        <f>VLOOKUP(A93,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>14000000</v>
       </c>
     </row>
@@ -7864,15 +7588,12 @@
         <v>2.5</v>
       </c>
       <c r="C94">
-        <f>VLOOKUP(A94,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D94">
-        <f>VLOOKUP(A94,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>6.5</v>
       </c>
       <c r="E94" s="7">
-        <f>VLOOKUP(A94,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>13500000</v>
       </c>
     </row>
@@ -7884,15 +7605,12 @@
         <v>5.92</v>
       </c>
       <c r="C95">
-        <f>VLOOKUP(A95,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D95">
-        <f>VLOOKUP(A95,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E95" s="7">
-        <f>VLOOKUP(A95,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>557500</v>
       </c>
     </row>
@@ -7904,15 +7622,12 @@
         <v>3.12</v>
       </c>
       <c r="C96">
-        <f>VLOOKUP(A96,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D96">
-        <f>VLOOKUP(A96,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E96" s="7">
-        <f>VLOOKUP(A96,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>850000</v>
       </c>
     </row>
@@ -7924,15 +7639,12 @@
         <v>2.8</v>
       </c>
       <c r="C97">
-        <f>VLOOKUP(A97,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D97">
-        <f>VLOOKUP(A97,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E97" s="7">
-        <f>VLOOKUP(A97,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>7325000</v>
       </c>
     </row>
@@ -7944,15 +7656,12 @@
         <v>6.53</v>
       </c>
       <c r="C98">
-        <f>VLOOKUP(A98,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D98">
-        <f>VLOOKUP(A98,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1.2</v>
       </c>
       <c r="E98" s="7">
-        <f>VLOOKUP(A98,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1125000</v>
       </c>
     </row>
@@ -7964,15 +7673,12 @@
         <v>3.25</v>
       </c>
       <c r="C99">
-        <f>VLOOKUP(A99,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D99">
-        <f>VLOOKUP(A99,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>5.4</v>
       </c>
       <c r="E99" s="7">
-        <f>VLOOKUP(A99,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>12916666</v>
       </c>
     </row>
@@ -7984,15 +7690,12 @@
         <v>7.98</v>
       </c>
       <c r="C100">
-        <f>VLOOKUP(A100,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D100">
-        <f>VLOOKUP(A100,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1.2</v>
       </c>
       <c r="E100" s="7">
-        <f>VLOOKUP(A100,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>571000</v>
       </c>
     </row>
@@ -8004,15 +7707,12 @@
         <v>4.96</v>
       </c>
       <c r="C101">
-        <f>VLOOKUP(A101,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D101">
-        <f>VLOOKUP(A101,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E101" s="7">
-        <f>VLOOKUP(A101,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>581500</v>
       </c>
     </row>
@@ -8024,15 +7724,12 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="C102">
-        <f>VLOOKUP(A102,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="D102">
-        <f>VLOOKUP(A102,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E102" s="7">
-        <f>VLOOKUP(A102,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>21833333</v>
       </c>
     </row>
@@ -8044,15 +7741,12 @@
         <v>3.98</v>
       </c>
       <c r="C103">
-        <f>VLOOKUP(A103,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D103">
-        <f>VLOOKUP(A103,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3.3</v>
       </c>
       <c r="E103" s="7">
-        <f>VLOOKUP(A103,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>20000000</v>
       </c>
     </row>
@@ -8064,15 +7758,12 @@
         <v>3.55</v>
       </c>
       <c r="C104">
-        <f>VLOOKUP(A104,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D104">
-        <f>VLOOKUP(A104,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.5</v>
       </c>
       <c r="E104" s="7">
-        <f>VLOOKUP(A104,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2600000</v>
       </c>
     </row>
@@ -8084,15 +7775,12 @@
         <v>9</v>
       </c>
       <c r="C105">
-        <f>VLOOKUP(A105,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="D105">
-        <f>VLOOKUP(A105,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1.2</v>
       </c>
       <c r="E105" s="7">
-        <f>VLOOKUP(A105,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>23000000</v>
       </c>
     </row>
@@ -8104,15 +7792,12 @@
         <v>8.65</v>
       </c>
       <c r="C106">
-        <f>VLOOKUP(A106,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="D106">
-        <f>VLOOKUP(A106,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1.4</v>
       </c>
       <c r="E106" s="7">
-        <f>VLOOKUP(A106,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>18000000</v>
       </c>
     </row>
@@ -8124,15 +7809,12 @@
         <v>3</v>
       </c>
       <c r="C107">
-        <f>VLOOKUP(A107,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D107">
-        <f>VLOOKUP(A107,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E107" s="7">
-        <f>VLOOKUP(A107,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>585000</v>
       </c>
     </row>
@@ -8144,15 +7826,12 @@
         <v>2.25</v>
       </c>
       <c r="C108">
-        <f>VLOOKUP(A108,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D108">
-        <f>VLOOKUP(A108,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E108" s="7">
-        <f>VLOOKUP(A108,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>558000</v>
       </c>
     </row>
@@ -8164,15 +7843,12 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="C109">
-        <f>VLOOKUP(A109,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D109">
-        <f>VLOOKUP(A109,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="E109" s="7">
-        <f>VLOOKUP(A109,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>9000000</v>
       </c>
     </row>
@@ -8184,15 +7860,12 @@
         <v>18</v>
       </c>
       <c r="C110">
-        <f>VLOOKUP(A110,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D110">
-        <f>VLOOKUP(A110,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1.1000000000000001</v>
       </c>
       <c r="E110" s="7">
-        <f>VLOOKUP(A110,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1500000</v>
       </c>
     </row>
@@ -8204,15 +7877,12 @@
         <v>3.89</v>
       </c>
       <c r="C111">
-        <f>VLOOKUP(A111,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D111">
-        <f>VLOOKUP(A111,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.5</v>
       </c>
       <c r="E111" s="7">
-        <f>VLOOKUP(A111,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2125000</v>
       </c>
     </row>
@@ -8224,15 +7894,12 @@
         <v>6.59</v>
       </c>
       <c r="C112">
-        <f>VLOOKUP(A112,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="D112">
-        <f>VLOOKUP(A112,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.5</v>
       </c>
       <c r="E112" s="7">
-        <f>VLOOKUP(A112,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>100000</v>
       </c>
     </row>
@@ -8244,15 +7911,12 @@
         <v>4.83</v>
       </c>
       <c r="C113">
-        <f>VLOOKUP(A113,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D113">
-        <f>VLOOKUP(A113,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E113" s="7">
-        <f>VLOOKUP(A113,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1525000</v>
       </c>
     </row>
@@ -8264,15 +7928,12 @@
         <v>5.59</v>
       </c>
       <c r="C114">
-        <f>VLOOKUP(A114,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D114">
-        <f>VLOOKUP(A114,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.5</v>
       </c>
       <c r="E114" s="7">
-        <f>VLOOKUP(A114,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>607425</v>
       </c>
     </row>
@@ -8284,15 +7945,12 @@
         <v>7.11</v>
       </c>
       <c r="C115">
-        <f>VLOOKUP(A115,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D115">
-        <f>VLOOKUP(A115,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E115" s="7">
-        <f>VLOOKUP(A115,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560400</v>
       </c>
     </row>
@@ -8304,15 +7962,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="C116">
-        <f>VLOOKUP(A116,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D116">
-        <f>VLOOKUP(A116,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E116" s="7">
-        <f>VLOOKUP(A116,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2250000</v>
       </c>
     </row>
@@ -8324,15 +7979,12 @@
         <v>4.75</v>
       </c>
       <c r="C117">
-        <f>VLOOKUP(A117,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D117">
-        <f>VLOOKUP(A117,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E117" s="7">
-        <f>VLOOKUP(A117,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2250000</v>
       </c>
     </row>
@@ -8344,15 +7996,12 @@
         <v>4.43</v>
       </c>
       <c r="C118">
-        <f>VLOOKUP(A118,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D118">
-        <f>VLOOKUP(A118,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E118" s="7">
-        <f>VLOOKUP(A118,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2250000</v>
       </c>
     </row>
@@ -8364,15 +8013,12 @@
         <v>4.01</v>
       </c>
       <c r="C119">
-        <f>VLOOKUP(A119,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D119">
-        <f>VLOOKUP(A119,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E119" s="7">
-        <f>VLOOKUP(A119,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>564000</v>
       </c>
     </row>
@@ -8384,15 +8030,12 @@
         <v>4.05</v>
       </c>
       <c r="C120">
-        <f>VLOOKUP(A120,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D120">
-        <f>VLOOKUP(A120,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.9</v>
       </c>
       <c r="E120" s="7">
-        <f>VLOOKUP(A120,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>6000000</v>
       </c>
     </row>
@@ -8403,16 +8046,13 @@
       <c r="B121">
         <v>7.25</v>
       </c>
-      <c r="C121" t="str">
-        <f>VLOOKUP(A121,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
-        <v>1st</v>
+      <c r="C121" t="s">
+        <v>349</v>
       </c>
       <c r="D121">
-        <f>VLOOKUP(A121,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E121" s="7">
-        <f>VLOOKUP(A121,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -8424,15 +8064,12 @@
         <v>18</v>
       </c>
       <c r="C122">
-        <f>VLOOKUP(A122,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D122">
-        <f>VLOOKUP(A122,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.6</v>
       </c>
       <c r="E122" s="7">
-        <f>VLOOKUP(A122,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>9000000</v>
       </c>
     </row>
@@ -8444,15 +8081,12 @@
         <v>3.21</v>
       </c>
       <c r="C123">
-        <f>VLOOKUP(A123,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D123">
-        <f>VLOOKUP(A123,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.2</v>
       </c>
       <c r="E123" s="7">
-        <f>VLOOKUP(A123,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>566100</v>
       </c>
     </row>
@@ -8464,15 +8098,12 @@
         <v>4.34</v>
       </c>
       <c r="C124">
-        <f>VLOOKUP(A124,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D124">
-        <f>VLOOKUP(A124,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.9</v>
       </c>
       <c r="E124" s="7">
-        <f>VLOOKUP(A124,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>15250000</v>
       </c>
     </row>
@@ -8484,15 +8115,12 @@
         <v>5.01</v>
       </c>
       <c r="C125">
-        <f>VLOOKUP(A125,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>15</v>
       </c>
       <c r="D125">
-        <f>VLOOKUP(A125,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E125" s="7">
-        <f>VLOOKUP(A125,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2000000</v>
       </c>
     </row>
@@ -8504,15 +8132,12 @@
         <v>7.13</v>
       </c>
       <c r="C126">
-        <f>VLOOKUP(A126,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="D126">
-        <f>VLOOKUP(A126,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E126" s="7">
-        <f>VLOOKUP(A126,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>7000000</v>
       </c>
     </row>
@@ -8524,15 +8149,12 @@
         <v>8.4700000000000006</v>
       </c>
       <c r="C127">
-        <f>VLOOKUP(A127,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D127">
-        <f>VLOOKUP(A127,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E127" s="7">
-        <f>VLOOKUP(A127,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1500000</v>
       </c>
     </row>
@@ -8544,15 +8166,12 @@
         <v>5.87</v>
       </c>
       <c r="C128">
-        <f>VLOOKUP(A128,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D128">
-        <f>VLOOKUP(A128,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E128" s="7">
-        <f>VLOOKUP(A128,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1500000</v>
       </c>
     </row>
@@ -8564,15 +8183,12 @@
         <v>32.4</v>
       </c>
       <c r="C129">
-        <f>VLOOKUP(A129,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D129">
-        <f>VLOOKUP(A129,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E129" s="7">
-        <f>VLOOKUP(A129,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1500000</v>
       </c>
     </row>
@@ -8584,15 +8200,12 @@
         <v>2.25</v>
       </c>
       <c r="C130">
-        <f>VLOOKUP(A130,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D130">
-        <f>VLOOKUP(A130,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E130" s="7">
-        <f>VLOOKUP(A130,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555900</v>
       </c>
     </row>
@@ -8604,15 +8217,12 @@
         <v>4.13</v>
       </c>
       <c r="C131">
-        <f>VLOOKUP(A131,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D131">
-        <f>VLOOKUP(A131,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.6</v>
       </c>
       <c r="E131" s="7">
-        <f>VLOOKUP(A131,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>590000</v>
       </c>
     </row>
@@ -8624,15 +8234,12 @@
         <v>5.71</v>
       </c>
       <c r="C132">
-        <f>VLOOKUP(A132,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D132">
-        <f>VLOOKUP(A132,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E132" s="7">
-        <f>VLOOKUP(A132,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>975000</v>
       </c>
     </row>
@@ -8644,15 +8251,12 @@
         <v>3.96</v>
       </c>
       <c r="C133">
-        <f>VLOOKUP(A133,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D133">
-        <f>VLOOKUP(A133,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E133" s="7">
-        <f>VLOOKUP(A133,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>910000</v>
       </c>
     </row>
@@ -8664,15 +8268,12 @@
         <v>3.64</v>
       </c>
       <c r="C134">
-        <f>VLOOKUP(A134,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D134">
-        <f>VLOOKUP(A134,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E134" s="7">
-        <f>VLOOKUP(A134,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>910000</v>
       </c>
     </row>
@@ -8684,15 +8285,12 @@
         <v>9</v>
       </c>
       <c r="C135">
-        <f>VLOOKUP(A135,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D135">
-        <f>VLOOKUP(A135,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E135" s="7">
-        <f>VLOOKUP(A135,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>910000</v>
       </c>
     </row>
@@ -8704,15 +8302,12 @@
         <v>5.99</v>
       </c>
       <c r="C136">
-        <f>VLOOKUP(A136,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D136">
-        <f>VLOOKUP(A136,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E136" s="7">
-        <f>VLOOKUP(A136,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>17000000</v>
       </c>
     </row>
@@ -8724,15 +8319,12 @@
         <v>5.37</v>
       </c>
       <c r="C137">
-        <f>VLOOKUP(A137,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D137">
-        <f>VLOOKUP(A137,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.5</v>
       </c>
       <c r="E137" s="7">
-        <f>VLOOKUP(A137,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1450000</v>
       </c>
     </row>
@@ -8744,15 +8336,12 @@
         <v>6.85</v>
       </c>
       <c r="C138">
-        <f>VLOOKUP(A138,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="D138">
-        <f>VLOOKUP(A138,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E138" s="7">
-        <f>VLOOKUP(A138,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>4000000</v>
       </c>
     </row>
@@ -8764,15 +8353,12 @@
         <v>5.7</v>
       </c>
       <c r="C139">
-        <f>VLOOKUP(A139,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D139">
-        <f>VLOOKUP(A139,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E139" s="7">
-        <f>VLOOKUP(A139,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>6666666</v>
       </c>
     </row>
@@ -8784,15 +8370,12 @@
         <v>3.72</v>
       </c>
       <c r="C140">
-        <f>VLOOKUP(A140,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D140">
-        <f>VLOOKUP(A140,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="E140" s="7">
-        <f>VLOOKUP(A140,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>570800</v>
       </c>
     </row>
@@ -8804,15 +8387,12 @@
         <v>2.7</v>
       </c>
       <c r="C141">
-        <f>VLOOKUP(A141,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D141">
-        <f>VLOOKUP(A141,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.6</v>
       </c>
       <c r="E141" s="7">
-        <f>VLOOKUP(A141,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>558000</v>
       </c>
     </row>
@@ -8824,15 +8404,12 @@
         <v>3.99</v>
       </c>
       <c r="C142">
-        <f>VLOOKUP(A142,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D142">
-        <f>VLOOKUP(A142,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E142" s="7">
-        <f>VLOOKUP(A142,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>850000</v>
       </c>
     </row>
@@ -8844,15 +8421,12 @@
         <v>4.84</v>
       </c>
       <c r="C143">
-        <f>VLOOKUP(A143,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D143">
-        <f>VLOOKUP(A143,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E143" s="7">
-        <f>VLOOKUP(A143,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560000</v>
       </c>
     </row>
@@ -8864,15 +8438,12 @@
         <v>5.64</v>
       </c>
       <c r="C144">
-        <f>VLOOKUP(A144,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D144">
-        <f>VLOOKUP(A144,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E144" s="7">
-        <f>VLOOKUP(A144,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555500</v>
       </c>
     </row>
@@ -8884,15 +8455,12 @@
         <v>3.9</v>
       </c>
       <c r="C145">
-        <f>VLOOKUP(A145,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D145">
-        <f>VLOOKUP(A145,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E145" s="7">
-        <f>VLOOKUP(A145,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>6000000</v>
       </c>
     </row>
@@ -8904,15 +8472,12 @@
         <v>2.75</v>
       </c>
       <c r="C146">
-        <f>VLOOKUP(A146,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D146">
-        <f>VLOOKUP(A146,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>5.8</v>
       </c>
       <c r="E146" s="7">
-        <f>VLOOKUP(A146,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>562100</v>
       </c>
     </row>
@@ -8924,15 +8489,12 @@
         <v>4.24</v>
       </c>
       <c r="C147">
-        <f>VLOOKUP(A147,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D147">
-        <f>VLOOKUP(A147,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.5</v>
       </c>
       <c r="E147" s="7">
-        <f>VLOOKUP(A147,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>565000</v>
       </c>
     </row>
@@ -8944,15 +8506,12 @@
         <v>5.22</v>
       </c>
       <c r="C148">
-        <f>VLOOKUP(A148,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D148">
-        <f>VLOOKUP(A148,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E148" s="7">
-        <f>VLOOKUP(A148,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>800000</v>
       </c>
     </row>
@@ -8964,15 +8523,12 @@
         <v>4.54</v>
       </c>
       <c r="C149">
-        <f>VLOOKUP(A149,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D149">
-        <f>VLOOKUP(A149,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="E149" s="7">
-        <f>VLOOKUP(A149,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>5475000</v>
       </c>
     </row>
@@ -8984,15 +8540,12 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="C150">
-        <f>VLOOKUP(A150,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D150">
-        <f>VLOOKUP(A150,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E150" s="7">
-        <f>VLOOKUP(A150,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560400</v>
       </c>
     </row>
@@ -9004,15 +8557,12 @@
         <v>4.22</v>
       </c>
       <c r="C151">
-        <f>VLOOKUP(A151,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D151">
-        <f>VLOOKUP(A151,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E151" s="7">
-        <f>VLOOKUP(A151,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560400</v>
       </c>
     </row>
@@ -9024,15 +8574,12 @@
         <v>5.79</v>
       </c>
       <c r="C152">
-        <f>VLOOKUP(A152,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D152">
-        <f>VLOOKUP(A152,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E152" s="7">
-        <f>VLOOKUP(A152,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560400</v>
       </c>
     </row>
@@ -9044,15 +8591,12 @@
         <v>3.66</v>
       </c>
       <c r="C153">
-        <f>VLOOKUP(A153,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D153">
-        <f>VLOOKUP(A153,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E153" s="7">
-        <f>VLOOKUP(A153,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560400</v>
       </c>
     </row>
@@ -9064,15 +8608,12 @@
         <v>4.9400000000000004</v>
       </c>
       <c r="C154">
-        <f>VLOOKUP(A154,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D154">
-        <f>VLOOKUP(A154,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E154" s="7">
-        <f>VLOOKUP(A154,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560400</v>
       </c>
     </row>
@@ -9084,15 +8625,12 @@
         <v>10.130000000000001</v>
       </c>
       <c r="C155">
-        <f>VLOOKUP(A155,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D155">
-        <f>VLOOKUP(A155,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E155" s="7">
-        <f>VLOOKUP(A155,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -9104,15 +8642,12 @@
         <v>6.73</v>
       </c>
       <c r="C156">
-        <f>VLOOKUP(A156,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D156">
-        <f>VLOOKUP(A156,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.9</v>
       </c>
       <c r="E156" s="7">
-        <f>VLOOKUP(A156,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>565000</v>
       </c>
     </row>
@@ -9124,15 +8659,12 @@
         <v>4.5</v>
       </c>
       <c r="C157">
-        <f>VLOOKUP(A157,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D157">
-        <f>VLOOKUP(A157,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E157" s="7">
-        <f>VLOOKUP(A157,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>100000</v>
       </c>
     </row>
@@ -9144,15 +8676,12 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="C158">
-        <f>VLOOKUP(A158,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D158">
-        <f>VLOOKUP(A158,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E158" s="7">
-        <f>VLOOKUP(A158,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>565000</v>
       </c>
     </row>
@@ -9164,15 +8693,12 @@
         <v>4.75</v>
       </c>
       <c r="C159">
-        <f>VLOOKUP(A159,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D159">
-        <f>VLOOKUP(A159,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E159" s="7">
-        <f>VLOOKUP(A159,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>569000</v>
       </c>
     </row>
@@ -9184,15 +8710,12 @@
         <v>5.34</v>
       </c>
       <c r="C160">
-        <f>VLOOKUP(A160,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D160">
-        <f>VLOOKUP(A160,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E160" s="7">
-        <f>VLOOKUP(A160,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>559000</v>
       </c>
     </row>
@@ -9204,15 +8727,12 @@
         <v>3.66</v>
       </c>
       <c r="C161">
-        <f>VLOOKUP(A161,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D161">
-        <f>VLOOKUP(A161,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="E161" s="7">
-        <f>VLOOKUP(A161,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>571300</v>
       </c>
     </row>
@@ -9224,15 +8744,12 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="C162">
-        <f>VLOOKUP(A162,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D162">
-        <f>VLOOKUP(A162,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="E162" s="7">
-        <f>VLOOKUP(A162,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1675000</v>
       </c>
     </row>
@@ -9244,15 +8761,12 @@
         <v>3.61</v>
       </c>
       <c r="C163">
-        <f>VLOOKUP(A163,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D163">
-        <f>VLOOKUP(A163,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="E163" s="7">
-        <f>VLOOKUP(A163,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>710000</v>
       </c>
     </row>
@@ -9264,15 +8778,12 @@
         <v>3.21</v>
       </c>
       <c r="C164">
-        <f>VLOOKUP(A164,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D164">
-        <f>VLOOKUP(A164,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.2</v>
       </c>
       <c r="E164" s="7">
-        <f>VLOOKUP(A164,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>567500</v>
       </c>
     </row>
@@ -9283,16 +8794,13 @@
       <c r="B165">
         <v>8.2200000000000006</v>
       </c>
-      <c r="C165" t="str">
-        <f>VLOOKUP(A165,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
-        <v>1st</v>
+      <c r="C165" t="s">
+        <v>349</v>
       </c>
       <c r="D165">
-        <f>VLOOKUP(A165,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E165" s="7">
-        <f>VLOOKUP(A165,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -9304,15 +8812,12 @@
         <v>5.72</v>
       </c>
       <c r="C166">
-        <f>VLOOKUP(A166,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D166">
-        <f>VLOOKUP(A166,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1.2</v>
       </c>
       <c r="E166" s="7">
-        <f>VLOOKUP(A166,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>9350000</v>
       </c>
     </row>
@@ -9324,15 +8829,12 @@
         <v>6.19</v>
       </c>
       <c r="C167">
-        <f>VLOOKUP(A167,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D167">
-        <f>VLOOKUP(A167,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1.2</v>
       </c>
       <c r="E167" s="7">
-        <f>VLOOKUP(A167,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>9350000</v>
       </c>
     </row>
@@ -9344,15 +8846,12 @@
         <v>4.03</v>
       </c>
       <c r="C168">
-        <f>VLOOKUP(A168,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D168">
-        <f>VLOOKUP(A168,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1.2</v>
       </c>
       <c r="E168" s="7">
-        <f>VLOOKUP(A168,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>9350000</v>
       </c>
     </row>
@@ -9364,15 +8863,12 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="C169">
-        <f>VLOOKUP(A169,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D169">
-        <f>VLOOKUP(A169,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E169" s="7">
-        <f>VLOOKUP(A169,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>579500</v>
       </c>
     </row>
@@ -9384,15 +8880,12 @@
         <v>4.03</v>
       </c>
       <c r="C170">
-        <f>VLOOKUP(A170,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D170">
-        <f>VLOOKUP(A170,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.9</v>
       </c>
       <c r="E170" s="7">
-        <f>VLOOKUP(A170,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>577500</v>
       </c>
     </row>
@@ -9404,15 +8897,12 @@
         <v>4.84</v>
       </c>
       <c r="C171">
-        <f>VLOOKUP(A171,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D171">
-        <f>VLOOKUP(A171,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E171" s="7">
-        <f>VLOOKUP(A171,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>8125000</v>
       </c>
     </row>
@@ -9424,15 +8914,12 @@
         <v>1.87</v>
       </c>
       <c r="C172">
-        <f>VLOOKUP(A172,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D172">
-        <f>VLOOKUP(A172,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.5</v>
       </c>
       <c r="E172" s="7">
-        <f>VLOOKUP(A172,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>6300000</v>
       </c>
     </row>
@@ -9444,15 +8931,12 @@
         <v>3.41</v>
       </c>
       <c r="C173">
-        <f>VLOOKUP(A173,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D173">
-        <f>VLOOKUP(A173,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>5.7</v>
       </c>
       <c r="E173" s="7">
-        <f>VLOOKUP(A173,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>573000</v>
       </c>
     </row>
@@ -9464,15 +8948,12 @@
         <v>4.57</v>
       </c>
       <c r="C174">
-        <f>VLOOKUP(A174,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D174">
-        <f>VLOOKUP(A174,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E174" s="7">
-        <f>VLOOKUP(A174,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2150000</v>
       </c>
     </row>
@@ -9484,15 +8965,12 @@
         <v>1.78</v>
       </c>
       <c r="C175">
-        <f>VLOOKUP(A175,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D175">
-        <f>VLOOKUP(A175,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.5</v>
       </c>
       <c r="E175" s="7">
-        <f>VLOOKUP(A175,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>566700</v>
       </c>
     </row>
@@ -9504,15 +8982,12 @@
         <v>8.2200000000000006</v>
       </c>
       <c r="C176">
-        <f>VLOOKUP(A176,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D176">
-        <f>VLOOKUP(A176,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E176" s="7">
-        <f>VLOOKUP(A176,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>100000</v>
       </c>
     </row>
@@ -9524,15 +8999,12 @@
         <v>3.99</v>
       </c>
       <c r="C177">
-        <f>VLOOKUP(A177,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D177">
-        <f>VLOOKUP(A177,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3.6</v>
       </c>
       <c r="E177" s="7">
-        <f>VLOOKUP(A177,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>900000</v>
       </c>
     </row>
@@ -9544,15 +9016,12 @@
         <v>3.5</v>
       </c>
       <c r="C178">
-        <f>VLOOKUP(A178,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="D178">
-        <f>VLOOKUP(A178,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.7</v>
       </c>
       <c r="E178" s="7">
-        <f>VLOOKUP(A178,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2000000</v>
       </c>
     </row>
@@ -9564,15 +9033,12 @@
         <v>3.54</v>
       </c>
       <c r="C179">
-        <f>VLOOKUP(A179,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D179">
-        <f>VLOOKUP(A179,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.4</v>
       </c>
       <c r="E179" s="7">
-        <f>VLOOKUP(A179,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>675000</v>
       </c>
     </row>
@@ -9584,15 +9050,12 @@
         <v>19.29</v>
       </c>
       <c r="C180">
-        <f>VLOOKUP(A180,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>13</v>
       </c>
       <c r="D180">
-        <f>VLOOKUP(A180,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.3</v>
       </c>
       <c r="E180" s="7">
-        <f>VLOOKUP(A180,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>20000000</v>
       </c>
     </row>
@@ -9604,15 +9067,12 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C181">
-        <f>VLOOKUP(A181,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D181">
-        <f>VLOOKUP(A181,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E181" s="7">
-        <f>VLOOKUP(A181,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>567500</v>
       </c>
     </row>
@@ -9624,15 +9084,12 @@
         <v>6.36</v>
       </c>
       <c r="C182">
-        <f>VLOOKUP(A182,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D182">
-        <f>VLOOKUP(A182,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.5</v>
       </c>
       <c r="E182" s="7">
-        <f>VLOOKUP(A182,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>576400</v>
       </c>
     </row>
@@ -9644,15 +9101,12 @@
         <v>3.84</v>
       </c>
       <c r="C183">
-        <f>VLOOKUP(A183,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D183">
-        <f>VLOOKUP(A183,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3.6</v>
       </c>
       <c r="E183" s="7">
-        <f>VLOOKUP(A183,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2935000</v>
       </c>
     </row>
@@ -9664,15 +9118,12 @@
         <v>2.87</v>
       </c>
       <c r="C184">
-        <f>VLOOKUP(A184,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D184">
-        <f>VLOOKUP(A184,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>5.6</v>
       </c>
       <c r="E184" s="7">
-        <f>VLOOKUP(A184,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>7500000</v>
       </c>
     </row>
@@ -9684,15 +9135,12 @@
         <v>4.17</v>
       </c>
       <c r="C185">
-        <f>VLOOKUP(A185,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D185">
-        <f>VLOOKUP(A185,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.4</v>
       </c>
       <c r="E185" s="7">
-        <f>VLOOKUP(A185,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>598650</v>
       </c>
     </row>
@@ -9704,15 +9152,12 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C186">
-        <f>VLOOKUP(A186,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D186">
-        <f>VLOOKUP(A186,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.7</v>
       </c>
       <c r="E186" s="7">
-        <f>VLOOKUP(A186,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>4000000</v>
       </c>
     </row>
@@ -9724,15 +9169,12 @@
         <v>1.18</v>
       </c>
       <c r="C187">
-        <f>VLOOKUP(A187,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D187">
-        <f>VLOOKUP(A187,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.7</v>
       </c>
       <c r="E187" s="7">
-        <f>VLOOKUP(A187,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>4000000</v>
       </c>
     </row>
@@ -9744,15 +9186,12 @@
         <v>4.01</v>
       </c>
       <c r="C188">
-        <f>VLOOKUP(A188,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D188">
-        <f>VLOOKUP(A188,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.7</v>
       </c>
       <c r="E188" s="7">
-        <f>VLOOKUP(A188,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>4000000</v>
       </c>
     </row>
@@ -9764,15 +9203,12 @@
         <v>7.94</v>
       </c>
       <c r="C189">
-        <f>VLOOKUP(A189,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="D189">
-        <f>VLOOKUP(A189,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E189" s="7">
-        <f>VLOOKUP(A189,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>5000000</v>
       </c>
     </row>
@@ -9784,15 +9220,12 @@
         <v>4.66</v>
       </c>
       <c r="C190">
-        <f>VLOOKUP(A190,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D190">
-        <f>VLOOKUP(A190,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="E190" s="7">
-        <f>VLOOKUP(A190,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>582500</v>
       </c>
     </row>
@@ -9804,15 +9237,12 @@
         <v>4.66</v>
       </c>
       <c r="C191">
-        <f>VLOOKUP(A191,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D191">
-        <f>VLOOKUP(A191,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E191" s="7">
-        <f>VLOOKUP(A191,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>800000</v>
       </c>
     </row>
@@ -9824,15 +9254,12 @@
         <v>3.86</v>
       </c>
       <c r="C192">
-        <f>VLOOKUP(A192,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D192">
-        <f>VLOOKUP(A192,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E192" s="7">
-        <f>VLOOKUP(A192,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>800000</v>
       </c>
     </row>
@@ -9844,15 +9271,12 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="C193">
-        <f>VLOOKUP(A193,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D193">
-        <f>VLOOKUP(A193,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E193" s="7">
-        <f>VLOOKUP(A193,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>800000</v>
       </c>
     </row>
@@ -9864,15 +9288,12 @@
         <v>5.19</v>
       </c>
       <c r="C194">
-        <f>VLOOKUP(A194,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D194">
-        <f>VLOOKUP(A194,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E194" s="7">
-        <f>VLOOKUP(A194,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>800000</v>
       </c>
     </row>
@@ -9884,15 +9305,12 @@
         <v>3.55</v>
       </c>
       <c r="C195">
-        <f>VLOOKUP(A195,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D195">
-        <f>VLOOKUP(A195,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.4</v>
       </c>
       <c r="E195" s="7">
-        <f>VLOOKUP(A195,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2225000</v>
       </c>
     </row>
@@ -9904,15 +9322,12 @@
         <v>6.26</v>
       </c>
       <c r="C196">
-        <f>VLOOKUP(A196,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D196">
-        <f>VLOOKUP(A196,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E196" s="7">
-        <f>VLOOKUP(A196,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>565000</v>
       </c>
     </row>
@@ -9924,15 +9339,12 @@
         <v>2.62</v>
       </c>
       <c r="C197">
-        <f>VLOOKUP(A197,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D197">
-        <f>VLOOKUP(A197,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.6</v>
       </c>
       <c r="E197" s="7">
-        <f>VLOOKUP(A197,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>687600</v>
       </c>
     </row>
@@ -9944,15 +9356,12 @@
         <v>13.5</v>
       </c>
       <c r="C198">
-        <f>VLOOKUP(A198,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D198">
-        <f>VLOOKUP(A198,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E198" s="7">
-        <f>VLOOKUP(A198,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>800000</v>
       </c>
     </row>
@@ -9964,15 +9373,12 @@
         <v>3.81</v>
       </c>
       <c r="C199">
-        <f>VLOOKUP(A199,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>14</v>
       </c>
       <c r="D199">
-        <f>VLOOKUP(A199,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3.2</v>
       </c>
       <c r="E199" s="7">
-        <f>VLOOKUP(A199,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>20000000</v>
       </c>
     </row>
@@ -9984,15 +9390,12 @@
         <v>3.3</v>
       </c>
       <c r="C200">
-        <f>VLOOKUP(A200,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D200">
-        <f>VLOOKUP(A200,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E200" s="7">
-        <f>VLOOKUP(A200,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>7083333</v>
       </c>
     </row>
@@ -10004,15 +9407,12 @@
         <v>4.91</v>
       </c>
       <c r="C201">
-        <f>VLOOKUP(A201,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>13</v>
       </c>
       <c r="D201">
-        <f>VLOOKUP(A201,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.3</v>
       </c>
       <c r="E201" s="7">
-        <f>VLOOKUP(A201,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>17000000</v>
       </c>
     </row>
@@ -10024,15 +9424,12 @@
         <v>4.47</v>
       </c>
       <c r="C202">
-        <f>VLOOKUP(A202,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D202">
-        <f>VLOOKUP(A202,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="E202" s="7">
-        <f>VLOOKUP(A202,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1300000</v>
       </c>
     </row>
@@ -10043,16 +9440,13 @@
       <c r="B203">
         <v>3.81</v>
       </c>
-      <c r="C203" t="str">
-        <f>VLOOKUP(A203,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
-        <v>1st</v>
+      <c r="C203" t="s">
+        <v>349</v>
       </c>
       <c r="D203">
-        <f>VLOOKUP(A203,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.6</v>
       </c>
       <c r="E203" s="7">
-        <f>VLOOKUP(A203,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -10064,15 +9458,12 @@
         <v>1.5</v>
       </c>
       <c r="C204">
-        <f>VLOOKUP(A204,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D204">
-        <f>VLOOKUP(A204,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.9</v>
       </c>
       <c r="E204" s="7">
-        <f>VLOOKUP(A204,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>4225000</v>
       </c>
     </row>
@@ -10083,16 +9474,13 @@
       <c r="B205">
         <v>5</v>
       </c>
-      <c r="C205" t="str">
-        <f>VLOOKUP(A205,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
-        <v>1st</v>
+      <c r="C205" t="s">
+        <v>349</v>
       </c>
       <c r="D205">
-        <f>VLOOKUP(A205,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E205" s="7">
-        <f>VLOOKUP(A205,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -10103,16 +9491,13 @@
       <c r="B206">
         <v>4.5</v>
       </c>
-      <c r="C206" t="str">
-        <f>VLOOKUP(A206,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
-        <v>1st</v>
+      <c r="C206" t="s">
+        <v>349</v>
       </c>
       <c r="D206">
-        <f>VLOOKUP(A206,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E206" s="7">
-        <f>VLOOKUP(A206,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -10123,16 +9508,13 @@
       <c r="B207">
         <v>5.63</v>
       </c>
-      <c r="C207" t="str">
-        <f>VLOOKUP(A207,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
-        <v>1st</v>
+      <c r="C207" t="s">
+        <v>349</v>
       </c>
       <c r="D207">
-        <f>VLOOKUP(A207,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E207" s="7">
-        <f>VLOOKUP(A207,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -10144,15 +9526,12 @@
         <v>7.09</v>
       </c>
       <c r="C208">
-        <f>VLOOKUP(A208,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D208">
-        <f>VLOOKUP(A208,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E208" s="7">
-        <f>VLOOKUP(A208,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>11000000</v>
       </c>
     </row>
@@ -10164,15 +9543,12 @@
         <v>4.91</v>
       </c>
       <c r="C209">
-        <f>VLOOKUP(A209,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D209">
-        <f>VLOOKUP(A209,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E209" s="7">
-        <f>VLOOKUP(A209,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3400000</v>
       </c>
     </row>
@@ -10184,15 +9560,12 @@
         <v>1.23</v>
       </c>
       <c r="C210">
-        <f>VLOOKUP(A210,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D210">
-        <f>VLOOKUP(A210,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.3</v>
       </c>
       <c r="E210" s="7">
-        <f>VLOOKUP(A210,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -10204,15 +9577,12 @@
         <v>6.23</v>
       </c>
       <c r="C211">
-        <f>VLOOKUP(A211,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D211">
-        <f>VLOOKUP(A211,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E211" s="7">
-        <f>VLOOKUP(A211,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1300000</v>
       </c>
     </row>
@@ -10224,15 +9594,12 @@
         <v>3.86</v>
       </c>
       <c r="C212">
-        <f>VLOOKUP(A212,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D212">
-        <f>VLOOKUP(A212,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="E212" s="7">
-        <f>VLOOKUP(A212,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1312500</v>
       </c>
     </row>
@@ -10244,15 +9611,12 @@
         <v>3.46</v>
       </c>
       <c r="C213">
-        <f>VLOOKUP(A213,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D213">
-        <f>VLOOKUP(A213,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="E213" s="7">
-        <f>VLOOKUP(A213,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>7405000</v>
       </c>
     </row>
@@ -10264,15 +9628,12 @@
         <v>1.8</v>
       </c>
       <c r="C214">
-        <f>VLOOKUP(A214,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D214">
-        <f>VLOOKUP(A214,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3.5</v>
       </c>
       <c r="E214" s="7">
-        <f>VLOOKUP(A214,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2150000</v>
       </c>
     </row>
@@ -10284,15 +9645,12 @@
         <v>8.02</v>
       </c>
       <c r="C215">
-        <f>VLOOKUP(A215,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D215">
-        <f>VLOOKUP(A215,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1.9</v>
       </c>
       <c r="E215" s="7">
-        <f>VLOOKUP(A215,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2500000</v>
       </c>
     </row>
@@ -10304,15 +9662,12 @@
         <v>6.4</v>
       </c>
       <c r="C216">
-        <f>VLOOKUP(A216,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>15</v>
       </c>
       <c r="D216">
-        <f>VLOOKUP(A216,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E216" s="7">
-        <f>VLOOKUP(A216,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>27858000</v>
       </c>
     </row>
@@ -10324,15 +9679,12 @@
         <v>6.14</v>
       </c>
       <c r="C217">
-        <f>VLOOKUP(A217,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D217">
-        <f>VLOOKUP(A217,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E217" s="7">
-        <f>VLOOKUP(A217,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>8500000</v>
       </c>
     </row>
@@ -10344,15 +9696,12 @@
         <v>7.09</v>
       </c>
       <c r="C218">
-        <f>VLOOKUP(A218,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D218">
-        <f>VLOOKUP(A218,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1</v>
       </c>
       <c r="E218" s="7">
-        <f>VLOOKUP(A218,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>563500</v>
       </c>
     </row>
@@ -10364,15 +9713,12 @@
         <v>3.14</v>
       </c>
       <c r="C219">
-        <f>VLOOKUP(A219,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D219">
-        <f>VLOOKUP(A219,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="E219" s="7">
-        <f>VLOOKUP(A219,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -10384,15 +9730,12 @@
         <v>10.47</v>
       </c>
       <c r="C220">
-        <f>VLOOKUP(A220,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D220">
-        <f>VLOOKUP(A220,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1.3</v>
       </c>
       <c r="E220" s="7">
-        <f>VLOOKUP(A220,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>572500</v>
       </c>
     </row>
@@ -10404,15 +9747,12 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="C221">
-        <f>VLOOKUP(A221,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>15</v>
       </c>
       <c r="D221">
-        <f>VLOOKUP(A221,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.2</v>
       </c>
       <c r="E221" s="7">
-        <f>VLOOKUP(A221,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>18666666</v>
       </c>
     </row>
@@ -10424,15 +9764,12 @@
         <v>3.63</v>
       </c>
       <c r="C222">
-        <f>VLOOKUP(A222,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D222">
-        <f>VLOOKUP(A222,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E222" s="7">
-        <f>VLOOKUP(A222,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>573175</v>
       </c>
     </row>
@@ -10444,15 +9781,12 @@
         <v>4.75</v>
       </c>
       <c r="C223">
-        <f>VLOOKUP(A223,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D223">
-        <f>VLOOKUP(A223,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E223" s="7">
-        <f>VLOOKUP(A223,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3000000</v>
       </c>
     </row>
@@ -10464,15 +9798,12 @@
         <v>6.31</v>
       </c>
       <c r="C224">
-        <f>VLOOKUP(A224,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D224">
-        <f>VLOOKUP(A224,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.9</v>
       </c>
       <c r="E224" s="7">
-        <f>VLOOKUP(A224,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>580300</v>
       </c>
     </row>
@@ -10484,15 +9815,12 @@
         <v>4.54</v>
       </c>
       <c r="C225">
-        <f>VLOOKUP(A225,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D225">
-        <f>VLOOKUP(A225,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E225" s="7">
-        <f>VLOOKUP(A225,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3250000</v>
       </c>
     </row>
@@ -10504,15 +9832,12 @@
         <v>3.35</v>
       </c>
       <c r="C226">
-        <f>VLOOKUP(A226,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D226">
-        <f>VLOOKUP(A226,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.8</v>
       </c>
       <c r="E226" s="7">
-        <f>VLOOKUP(A226,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>559100</v>
       </c>
     </row>
@@ -10524,15 +9849,12 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="C227">
-        <f>VLOOKUP(A227,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D227">
-        <f>VLOOKUP(A227,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E227" s="7">
-        <f>VLOOKUP(A227,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1500000</v>
       </c>
     </row>
@@ -10544,15 +9866,12 @@
         <v>3</v>
       </c>
       <c r="C228">
-        <f>VLOOKUP(A228,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D228">
-        <f>VLOOKUP(A228,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E228" s="7">
-        <f>VLOOKUP(A228,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1500000</v>
       </c>
     </row>
@@ -10564,15 +9883,12 @@
         <v>1.44</v>
       </c>
       <c r="C229">
-        <f>VLOOKUP(A229,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D229">
-        <f>VLOOKUP(A229,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E229" s="7">
-        <f>VLOOKUP(A229,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1500000</v>
       </c>
     </row>
@@ -10584,15 +9900,12 @@
         <v>4.16</v>
       </c>
       <c r="C230">
-        <f>VLOOKUP(A230,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D230">
-        <f>VLOOKUP(A230,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E230" s="7">
-        <f>VLOOKUP(A230,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>5714285</v>
       </c>
     </row>
@@ -10604,15 +9917,12 @@
         <v>3.84</v>
       </c>
       <c r="C231">
-        <f>VLOOKUP(A231,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D231">
-        <f>VLOOKUP(A231,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E231" s="7">
-        <f>VLOOKUP(A231,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>585000</v>
       </c>
     </row>
@@ -10624,15 +9934,12 @@
         <v>4.7</v>
       </c>
       <c r="C232">
-        <f>VLOOKUP(A232,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D232">
-        <f>VLOOKUP(A232,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E232" s="7">
-        <f>VLOOKUP(A232,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>556800</v>
       </c>
     </row>
@@ -10644,15 +9951,12 @@
         <v>3.71</v>
       </c>
       <c r="C233">
-        <f>VLOOKUP(A233,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D233">
-        <f>VLOOKUP(A233,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E233" s="7">
-        <f>VLOOKUP(A233,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>19333334</v>
       </c>
     </row>
@@ -10664,15 +9968,12 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="C234">
-        <f>VLOOKUP(A234,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D234">
-        <f>VLOOKUP(A234,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E234" s="7">
-        <f>VLOOKUP(A234,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3175000</v>
       </c>
     </row>
@@ -10684,15 +9985,12 @@
         <v>4.37</v>
       </c>
       <c r="C235">
-        <f>VLOOKUP(A235,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D235">
-        <f>VLOOKUP(A235,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.6</v>
       </c>
       <c r="E235" s="7">
-        <f>VLOOKUP(A235,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>569200</v>
       </c>
     </row>
@@ -10704,15 +10002,12 @@
         <v>6.02</v>
       </c>
       <c r="C236">
-        <f>VLOOKUP(A236,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D236">
-        <f>VLOOKUP(A236,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E236" s="7">
-        <f>VLOOKUP(A236,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>575000</v>
       </c>
     </row>
@@ -10724,15 +10019,12 @@
         <v>5.04</v>
       </c>
       <c r="C237">
-        <f>VLOOKUP(A237,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D237">
-        <f>VLOOKUP(A237,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E237" s="7">
-        <f>VLOOKUP(A237,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>557000</v>
       </c>
     </row>
@@ -10744,15 +10036,12 @@
         <v>3.48</v>
       </c>
       <c r="C238">
-        <f>VLOOKUP(A238,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D238">
-        <f>VLOOKUP(A238,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E238" s="7">
-        <f>VLOOKUP(A238,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>4650000</v>
       </c>
     </row>
@@ -10764,15 +10053,12 @@
         <v>5.24</v>
       </c>
       <c r="C239">
-        <f>VLOOKUP(A239,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D239">
-        <f>VLOOKUP(A239,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E239" s="7">
-        <f>VLOOKUP(A239,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>578250</v>
       </c>
     </row>
@@ -10784,15 +10070,12 @@
         <v>3.67</v>
       </c>
       <c r="C240">
-        <f>VLOOKUP(A240,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D240">
-        <f>VLOOKUP(A240,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.8</v>
       </c>
       <c r="E240" s="7">
-        <f>VLOOKUP(A240,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1387000</v>
       </c>
     </row>
@@ -10804,15 +10087,12 @@
         <v>2.12</v>
       </c>
       <c r="C241">
-        <f>VLOOKUP(A241,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D241">
-        <f>VLOOKUP(A241,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.2</v>
       </c>
       <c r="E241" s="7">
-        <f>VLOOKUP(A241,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3175000</v>
       </c>
     </row>
@@ -10824,15 +10104,12 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="C242">
-        <f>VLOOKUP(A242,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D242">
-        <f>VLOOKUP(A242,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.8</v>
       </c>
       <c r="E242" s="7">
-        <f>VLOOKUP(A242,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>578125</v>
       </c>
     </row>
@@ -10844,15 +10121,12 @@
         <v>4.9400000000000004</v>
       </c>
       <c r="C243">
-        <f>VLOOKUP(A243,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="D243">
-        <f>VLOOKUP(A243,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.8</v>
       </c>
       <c r="E243" s="7">
-        <f>VLOOKUP(A243,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2500000</v>
       </c>
     </row>
@@ -10864,15 +10138,12 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="C244">
-        <f>VLOOKUP(A244,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D244">
-        <f>VLOOKUP(A244,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E244" s="7">
-        <f>VLOOKUP(A244,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3333333</v>
       </c>
     </row>
@@ -10883,16 +10154,13 @@
       <c r="B245">
         <v>4.42</v>
       </c>
-      <c r="C245" t="str">
-        <f>VLOOKUP(A245,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
-        <v>1st</v>
+      <c r="C245" t="s">
+        <v>349</v>
       </c>
       <c r="D245">
-        <f>VLOOKUP(A245,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.4</v>
       </c>
       <c r="E245" s="7">
-        <f>VLOOKUP(A245,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2000000</v>
       </c>
     </row>
@@ -10904,15 +10172,12 @@
         <v>3.41</v>
       </c>
       <c r="C246">
-        <f>VLOOKUP(A246,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>13</v>
       </c>
       <c r="D246">
-        <f>VLOOKUP(A246,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.4</v>
       </c>
       <c r="E246" s="7">
-        <f>VLOOKUP(A246,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>16500000</v>
       </c>
     </row>
@@ -10924,15 +10189,12 @@
         <v>3.03</v>
       </c>
       <c r="C247">
-        <f>VLOOKUP(A247,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="D247">
-        <f>VLOOKUP(A247,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3.1</v>
       </c>
       <c r="E247" s="7">
-        <f>VLOOKUP(A247,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>31000000</v>
       </c>
     </row>
@@ -10944,15 +10206,12 @@
         <v>3.75</v>
       </c>
       <c r="C248">
-        <f>VLOOKUP(A248,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D248">
-        <f>VLOOKUP(A248,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E248" s="7">
-        <f>VLOOKUP(A248,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>13000000</v>
       </c>
     </row>
@@ -10963,16 +10222,13 @@
       <c r="B249">
         <v>5.46</v>
       </c>
-      <c r="C249" t="str">
-        <f>VLOOKUP(A249,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
-        <v>1st</v>
+      <c r="C249" t="s">
+        <v>349</v>
       </c>
       <c r="D249">
-        <f>VLOOKUP(A249,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.6</v>
       </c>
       <c r="E249" s="7">
-        <f>VLOOKUP(A249,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>10000000</v>
       </c>
     </row>
@@ -10984,15 +10240,12 @@
         <v>6.53</v>
       </c>
       <c r="C250">
-        <f>VLOOKUP(A250,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D250">
-        <f>VLOOKUP(A250,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.5</v>
       </c>
       <c r="E250" s="7">
-        <f>VLOOKUP(A250,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>10000000</v>
       </c>
     </row>
@@ -11004,15 +10257,12 @@
         <v>3.65</v>
       </c>
       <c r="C251">
-        <f>VLOOKUP(A251,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D251">
-        <f>VLOOKUP(A251,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.8</v>
       </c>
       <c r="E251" s="7">
-        <f>VLOOKUP(A251,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -11024,15 +10274,12 @@
         <v>5.8</v>
       </c>
       <c r="C252">
-        <f>VLOOKUP(A252,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D252">
-        <f>VLOOKUP(A252,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E252" s="7">
-        <f>VLOOKUP(A252,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>17000000</v>
       </c>
     </row>
@@ -11044,15 +10291,12 @@
         <v>9.15</v>
       </c>
       <c r="C253">
-        <f>VLOOKUP(A253,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D253">
-        <f>VLOOKUP(A253,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.6</v>
       </c>
       <c r="E253" s="7">
-        <f>VLOOKUP(A253,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>567600</v>
       </c>
     </row>
@@ -11064,15 +10308,12 @@
         <v>3.27</v>
       </c>
       <c r="C254">
-        <f>VLOOKUP(A254,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D254">
-        <f>VLOOKUP(A254,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="E254" s="7">
-        <f>VLOOKUP(A254,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560800</v>
       </c>
     </row>
@@ -11084,15 +10325,12 @@
         <v>3.95</v>
       </c>
       <c r="C255">
-        <f>VLOOKUP(A255,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D255">
-        <f>VLOOKUP(A255,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="E255" s="7">
-        <f>VLOOKUP(A255,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560800</v>
       </c>
     </row>
@@ -11104,15 +10342,12 @@
         <v>0.77</v>
       </c>
       <c r="C256">
-        <f>VLOOKUP(A256,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D256">
-        <f>VLOOKUP(A256,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="E256" s="7">
-        <f>VLOOKUP(A256,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560800</v>
       </c>
     </row>
@@ -11124,15 +10359,12 @@
         <v>4.07</v>
       </c>
       <c r="C257">
-        <f>VLOOKUP(A257,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D257">
-        <f>VLOOKUP(A257,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.6</v>
       </c>
       <c r="E257" s="7">
-        <f>VLOOKUP(A257,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>566700</v>
       </c>
     </row>
@@ -11144,15 +10376,12 @@
         <v>4.45</v>
       </c>
       <c r="C258">
-        <f>VLOOKUP(A258,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D258">
-        <f>VLOOKUP(A258,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E258" s="7">
-        <f>VLOOKUP(A258,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>562500</v>
       </c>
     </row>
@@ -11164,15 +10393,12 @@
         <v>4.29</v>
       </c>
       <c r="C259">
-        <f>VLOOKUP(A259,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D259">
-        <f>VLOOKUP(A259,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.9</v>
       </c>
       <c r="E259" s="7">
-        <f>VLOOKUP(A259,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>16000000</v>
       </c>
     </row>
@@ -11184,15 +10410,12 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="C260">
-        <f>VLOOKUP(A260,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D260">
-        <f>VLOOKUP(A260,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.9</v>
       </c>
       <c r="E260" s="7">
-        <f>VLOOKUP(A260,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>16000000</v>
       </c>
     </row>
@@ -11204,15 +10427,12 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="C261">
-        <f>VLOOKUP(A261,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D261">
-        <f>VLOOKUP(A261,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.9</v>
       </c>
       <c r="E261" s="7">
-        <f>VLOOKUP(A261,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>16000000</v>
       </c>
     </row>
@@ -11224,15 +10444,12 @@
         <v>5.71</v>
       </c>
       <c r="C262">
-        <f>VLOOKUP(A262,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="D262">
-        <f>VLOOKUP(A262,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.4</v>
       </c>
       <c r="E262" s="7">
-        <f>VLOOKUP(A262,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>450000</v>
       </c>
     </row>
@@ -11244,15 +10461,12 @@
         <v>4.33</v>
       </c>
       <c r="C263">
-        <f>VLOOKUP(A263,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D263">
-        <f>VLOOKUP(A263,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.4</v>
       </c>
       <c r="E263" s="7">
-        <f>VLOOKUP(A263,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1500000</v>
       </c>
     </row>
@@ -11264,15 +10478,12 @@
         <v>5.53</v>
       </c>
       <c r="C264">
-        <f>VLOOKUP(A264,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D264">
-        <f>VLOOKUP(A264,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.5</v>
       </c>
       <c r="E264" s="7">
-        <f>VLOOKUP(A264,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1260000</v>
       </c>
     </row>
@@ -11284,15 +10495,12 @@
         <v>4.46</v>
       </c>
       <c r="C265">
-        <f>VLOOKUP(A265,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>14</v>
       </c>
       <c r="D265">
-        <f>VLOOKUP(A265,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.9</v>
       </c>
       <c r="E265" s="7">
-        <f>VLOOKUP(A265,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>27500000</v>
       </c>
     </row>
@@ -11304,15 +10512,12 @@
         <v>3.47</v>
       </c>
       <c r="C266">
-        <f>VLOOKUP(A266,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>14</v>
       </c>
       <c r="D266">
-        <f>VLOOKUP(A266,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E266" s="7">
-        <f>VLOOKUP(A266,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>100000</v>
       </c>
     </row>
@@ -11324,15 +10529,12 @@
         <v>4.55</v>
       </c>
       <c r="C267">
-        <f>VLOOKUP(A267,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D267">
-        <f>VLOOKUP(A267,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E267" s="7">
-        <f>VLOOKUP(A267,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560550</v>
       </c>
     </row>
@@ -11344,15 +10546,12 @@
         <v>6.33</v>
       </c>
       <c r="C268">
-        <f>VLOOKUP(A268,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D268">
-        <f>VLOOKUP(A268,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1.3</v>
       </c>
       <c r="E268" s="7">
-        <f>VLOOKUP(A268,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>562250</v>
       </c>
     </row>
@@ -11364,15 +10563,12 @@
         <v>5.09</v>
       </c>
       <c r="C269">
-        <f>VLOOKUP(A269,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D269">
-        <f>VLOOKUP(A269,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="E269" s="7">
-        <f>VLOOKUP(A269,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -11384,15 +10580,12 @@
         <v>5.38</v>
       </c>
       <c r="C270">
-        <f>VLOOKUP(A270,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D270">
-        <f>VLOOKUP(A270,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.6</v>
       </c>
       <c r="E270" s="7">
-        <f>VLOOKUP(A270,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>580000</v>
       </c>
     </row>
@@ -11404,15 +10597,12 @@
         <v>3.41</v>
       </c>
       <c r="C271">
-        <f>VLOOKUP(A271,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D271">
-        <f>VLOOKUP(A271,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="E271" s="7">
-        <f>VLOOKUP(A271,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>556900</v>
       </c>
     </row>
@@ -11424,15 +10614,12 @@
         <v>2.92</v>
       </c>
       <c r="C272">
-        <f>VLOOKUP(A272,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D272">
-        <f>VLOOKUP(A272,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.4</v>
       </c>
       <c r="E272" s="7">
-        <f>VLOOKUP(A272,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1950000</v>
       </c>
     </row>
@@ -11444,15 +10631,12 @@
         <v>4.18</v>
       </c>
       <c r="C273">
-        <f>VLOOKUP(A273,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D273">
-        <f>VLOOKUP(A273,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E273" s="7">
-        <f>VLOOKUP(A273,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>565100</v>
       </c>
     </row>
@@ -11463,16 +10647,13 @@
       <c r="B274">
         <v>5.35</v>
       </c>
-      <c r="C274" t="str">
-        <f>VLOOKUP(A274,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
-        <v>1st</v>
+      <c r="C274" t="s">
+        <v>349</v>
       </c>
       <c r="D274">
-        <f>VLOOKUP(A274,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="E274" s="7">
-        <f>VLOOKUP(A274,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -11484,15 +10665,12 @@
         <v>2.7</v>
       </c>
       <c r="C275">
-        <f>VLOOKUP(A275,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D275">
-        <f>VLOOKUP(A275,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.4</v>
       </c>
       <c r="E275" s="7">
-        <f>VLOOKUP(A275,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>591875</v>
       </c>
     </row>
@@ -11504,15 +10682,12 @@
         <v>3.67</v>
       </c>
       <c r="C276">
-        <f>VLOOKUP(A276,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D276">
-        <f>VLOOKUP(A276,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>7.5</v>
       </c>
       <c r="E276" s="7">
-        <f>VLOOKUP(A276,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>9333333</v>
       </c>
     </row>
@@ -11524,15 +10699,12 @@
         <v>4.04</v>
       </c>
       <c r="C277">
-        <f>VLOOKUP(A277,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D277">
-        <f>VLOOKUP(A277,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.7</v>
       </c>
       <c r="E277" s="7">
-        <f>VLOOKUP(A277,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3125000</v>
       </c>
     </row>
@@ -11544,15 +10716,12 @@
         <v>4.09</v>
       </c>
       <c r="C278">
-        <f>VLOOKUP(A278,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D278">
-        <f>VLOOKUP(A278,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E278" s="7">
-        <f>VLOOKUP(A278,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560000</v>
       </c>
     </row>
@@ -11564,15 +10733,12 @@
         <v>4.45</v>
       </c>
       <c r="C279">
-        <f>VLOOKUP(A279,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D279">
-        <f>VLOOKUP(A279,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E279" s="7">
-        <f>VLOOKUP(A279,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560000</v>
       </c>
     </row>
@@ -11584,15 +10750,12 @@
         <v>3.63</v>
       </c>
       <c r="C280">
-        <f>VLOOKUP(A280,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D280">
-        <f>VLOOKUP(A280,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E280" s="7">
-        <f>VLOOKUP(A280,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560000</v>
       </c>
     </row>
@@ -11604,15 +10767,12 @@
         <v>5.14</v>
       </c>
       <c r="C281">
-        <f>VLOOKUP(A281,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D281">
-        <f>VLOOKUP(A281,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E281" s="7">
-        <f>VLOOKUP(A281,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>570000</v>
       </c>
     </row>
@@ -11624,15 +10784,12 @@
         <v>1.21</v>
       </c>
       <c r="C282">
-        <f>VLOOKUP(A282,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D282">
-        <f>VLOOKUP(A282,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="E282" s="7">
-        <f>VLOOKUP(A282,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3150000</v>
       </c>
     </row>
@@ -11644,15 +10801,12 @@
         <v>4.76</v>
       </c>
       <c r="C283">
-        <f>VLOOKUP(A283,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D283">
-        <f>VLOOKUP(A283,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3.6</v>
       </c>
       <c r="E283" s="7">
-        <f>VLOOKUP(A283,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>565000</v>
       </c>
     </row>
@@ -11664,15 +10818,12 @@
         <v>3.4</v>
       </c>
       <c r="C284">
-        <f>VLOOKUP(A284,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D284">
-        <f>VLOOKUP(A284,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="E284" s="7">
-        <f>VLOOKUP(A284,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2250000</v>
       </c>
     </row>
@@ -11684,15 +10835,12 @@
         <v>3.08</v>
       </c>
       <c r="C285">
-        <f>VLOOKUP(A285,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D285">
-        <f>VLOOKUP(A285,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="E285" s="7">
-        <f>VLOOKUP(A285,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2250000</v>
       </c>
     </row>
@@ -11704,15 +10852,12 @@
         <v>4.08</v>
       </c>
       <c r="C286">
-        <f>VLOOKUP(A286,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D286">
-        <f>VLOOKUP(A286,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="E286" s="7">
-        <f>VLOOKUP(A286,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2250000</v>
       </c>
     </row>
@@ -11724,15 +10869,12 @@
         <v>3.17</v>
       </c>
       <c r="C287">
-        <f>VLOOKUP(A287,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D287">
-        <f>VLOOKUP(A287,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.8</v>
       </c>
       <c r="E287" s="7">
-        <f>VLOOKUP(A287,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>11700000</v>
       </c>
     </row>
@@ -11744,15 +10886,12 @@
         <v>9</v>
       </c>
       <c r="C288">
-        <f>VLOOKUP(A288,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>15</v>
       </c>
       <c r="D288">
-        <f>VLOOKUP(A288,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1.5</v>
       </c>
       <c r="E288" s="7">
-        <f>VLOOKUP(A288,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3250000</v>
       </c>
     </row>
@@ -11764,15 +10903,12 @@
         <v>4.21</v>
       </c>
       <c r="C289">
-        <f>VLOOKUP(A289,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D289">
-        <f>VLOOKUP(A289,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.5</v>
       </c>
       <c r="E289" s="7">
-        <f>VLOOKUP(A289,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2625000</v>
       </c>
     </row>
@@ -11784,15 +10920,12 @@
         <v>2.94</v>
       </c>
       <c r="C290">
-        <f>VLOOKUP(A290,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D290">
-        <f>VLOOKUP(A290,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.3</v>
       </c>
       <c r="E290" s="7">
-        <f>VLOOKUP(A290,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>900000</v>
       </c>
     </row>
@@ -11804,15 +10937,12 @@
         <v>6.63</v>
       </c>
       <c r="C291">
-        <f>VLOOKUP(A291,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D291">
-        <f>VLOOKUP(A291,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E291" s="7">
-        <f>VLOOKUP(A291,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>563700</v>
       </c>
     </row>
@@ -11824,15 +10954,12 @@
         <v>4.91</v>
       </c>
       <c r="C292">
-        <f>VLOOKUP(A292,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D292">
-        <f>VLOOKUP(A292,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E292" s="7">
-        <f>VLOOKUP(A292,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>568300</v>
       </c>
     </row>
@@ -11844,15 +10971,12 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="C293">
-        <f>VLOOKUP(A293,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D293">
-        <f>VLOOKUP(A293,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="E293" s="7">
-        <f>VLOOKUP(A293,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>578250</v>
       </c>
     </row>
@@ -11864,15 +10988,12 @@
         <v>4.82</v>
       </c>
       <c r="C294">
-        <f>VLOOKUP(A294,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D294">
-        <f>VLOOKUP(A294,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E294" s="7">
-        <f>VLOOKUP(A294,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1400000</v>
       </c>
     </row>
@@ -11884,15 +11005,12 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="C295">
-        <f>VLOOKUP(A295,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D295">
-        <f>VLOOKUP(A295,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.3</v>
       </c>
       <c r="E295" s="7">
-        <f>VLOOKUP(A295,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>8500000</v>
       </c>
     </row>
@@ -11904,15 +11022,12 @@
         <v>4.7</v>
       </c>
       <c r="C296">
-        <f>VLOOKUP(A296,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D296">
-        <f>VLOOKUP(A296,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.3</v>
       </c>
       <c r="E296" s="7">
-        <f>VLOOKUP(A296,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>5800000</v>
       </c>
     </row>
@@ -11924,15 +11039,12 @@
         <v>3.6</v>
       </c>
       <c r="C297">
-        <f>VLOOKUP(A297,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D297">
-        <f>VLOOKUP(A297,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E297" s="7">
-        <f>VLOOKUP(A297,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555500</v>
       </c>
     </row>
@@ -11944,15 +11056,12 @@
         <v>6.61</v>
       </c>
       <c r="C298">
-        <f>VLOOKUP(A298,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D298">
-        <f>VLOOKUP(A298,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E298" s="7">
-        <f>VLOOKUP(A298,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560000</v>
       </c>
     </row>
@@ -11964,15 +11073,12 @@
         <v>6.35</v>
       </c>
       <c r="C299">
-        <f>VLOOKUP(A299,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D299">
-        <f>VLOOKUP(A299,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E299" s="7">
-        <f>VLOOKUP(A299,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560000</v>
       </c>
     </row>
@@ -11984,15 +11090,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="C300">
-        <f>VLOOKUP(A300,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D300">
-        <f>VLOOKUP(A300,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E300" s="7">
-        <f>VLOOKUP(A300,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560000</v>
       </c>
     </row>
@@ -12004,15 +11107,12 @@
         <v>2.08</v>
       </c>
       <c r="C301">
-        <f>VLOOKUP(A301,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D301">
-        <f>VLOOKUP(A301,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E301" s="7">
-        <f>VLOOKUP(A301,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560000</v>
       </c>
     </row>
@@ -12024,15 +11124,12 @@
         <v>9</v>
       </c>
       <c r="C302">
-        <f>VLOOKUP(A302,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D302">
-        <f>VLOOKUP(A302,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E302" s="7">
-        <f>VLOOKUP(A302,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560000</v>
       </c>
     </row>
@@ -12044,15 +11141,12 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="C303">
-        <f>VLOOKUP(A303,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D303">
-        <f>VLOOKUP(A303,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E303" s="7">
-        <f>VLOOKUP(A303,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560000</v>
       </c>
     </row>
@@ -12064,15 +11158,12 @@
         <v>5.79</v>
       </c>
       <c r="C304">
-        <f>VLOOKUP(A304,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D304">
-        <f>VLOOKUP(A304,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E304" s="7">
-        <f>VLOOKUP(A304,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>558000</v>
       </c>
     </row>
@@ -12084,15 +11175,12 @@
         <v>1.17</v>
       </c>
       <c r="C305">
-        <f>VLOOKUP(A305,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D305">
-        <f>VLOOKUP(A305,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.4</v>
       </c>
       <c r="E305" s="7">
-        <f>VLOOKUP(A305,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>563500</v>
       </c>
     </row>
@@ -12104,15 +11192,12 @@
         <v>4.16</v>
       </c>
       <c r="C306">
-        <f>VLOOKUP(A306,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D306">
-        <f>VLOOKUP(A306,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="E306" s="7">
-        <f>VLOOKUP(A306,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>8000000</v>
       </c>
     </row>
@@ -12124,15 +11209,12 @@
         <v>3.98</v>
       </c>
       <c r="C307">
-        <f>VLOOKUP(A307,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D307">
-        <f>VLOOKUP(A307,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.6</v>
       </c>
       <c r="E307" s="7">
-        <f>VLOOKUP(A307,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>4500000</v>
       </c>
     </row>
@@ -12144,15 +11226,12 @@
         <v>4.45</v>
       </c>
       <c r="C308">
-        <f>VLOOKUP(A308,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>14</v>
       </c>
       <c r="D308">
-        <f>VLOOKUP(A308,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.5</v>
       </c>
       <c r="E308" s="7">
-        <f>VLOOKUP(A308,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>11000000</v>
       </c>
     </row>
@@ -12164,15 +11243,12 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="C309">
-        <f>VLOOKUP(A309,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D309">
-        <f>VLOOKUP(A309,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E309" s="7">
-        <f>VLOOKUP(A309,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>593200</v>
       </c>
     </row>
@@ -12184,15 +11260,12 @@
         <v>8.59</v>
       </c>
       <c r="C310">
-        <f>VLOOKUP(A310,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D310">
-        <f>VLOOKUP(A310,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.9</v>
       </c>
       <c r="E310" s="7">
-        <f>VLOOKUP(A310,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2000000</v>
       </c>
     </row>
@@ -12204,15 +11277,12 @@
         <v>3.59</v>
       </c>
       <c r="C311">
-        <f>VLOOKUP(A311,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D311">
-        <f>VLOOKUP(A311,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>7.7</v>
       </c>
       <c r="E311" s="7">
-        <f>VLOOKUP(A311,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>9833333</v>
       </c>
     </row>
@@ -12224,15 +11294,12 @@
         <v>7.06</v>
       </c>
       <c r="C312">
-        <f>VLOOKUP(A312,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D312">
-        <f>VLOOKUP(A312,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.8</v>
       </c>
       <c r="E312" s="7">
-        <f>VLOOKUP(A312,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>575000</v>
       </c>
     </row>
@@ -12244,15 +11311,12 @@
         <v>2.63</v>
       </c>
       <c r="C313">
-        <f>VLOOKUP(A313,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D313">
-        <f>VLOOKUP(A313,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.4</v>
       </c>
       <c r="E313" s="7">
-        <f>VLOOKUP(A313,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560000</v>
       </c>
     </row>
@@ -12264,15 +11328,12 @@
         <v>6.75</v>
       </c>
       <c r="C314">
-        <f>VLOOKUP(A314,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D314">
-        <f>VLOOKUP(A314,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E314" s="7">
-        <f>VLOOKUP(A314,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>596600</v>
       </c>
     </row>
@@ -12283,16 +11344,13 @@
       <c r="B315">
         <v>36</v>
       </c>
-      <c r="C315" t="str">
-        <f>VLOOKUP(A315,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
-        <v>1st</v>
+      <c r="C315" t="s">
+        <v>349</v>
       </c>
       <c r="D315">
-        <f>VLOOKUP(A315,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E315" s="7">
-        <f>VLOOKUP(A315,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>565000</v>
       </c>
     </row>
@@ -12304,15 +11362,12 @@
         <v>3.94</v>
       </c>
       <c r="C316">
-        <f>VLOOKUP(A316,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D316">
-        <f>VLOOKUP(A316,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.4</v>
       </c>
       <c r="E316" s="7">
-        <f>VLOOKUP(A316,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1100000</v>
       </c>
     </row>
@@ -12324,15 +11379,12 @@
         <v>2.86</v>
       </c>
       <c r="C317">
-        <f>VLOOKUP(A317,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D317">
-        <f>VLOOKUP(A317,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.3</v>
       </c>
       <c r="E317" s="7">
-        <f>VLOOKUP(A317,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>567500</v>
       </c>
     </row>
@@ -12344,15 +11396,12 @@
         <v>3.05</v>
       </c>
       <c r="C318">
-        <f>VLOOKUP(A318,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="D318">
-        <f>VLOOKUP(A318,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="E318" s="7">
-        <f>VLOOKUP(A318,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>15000000</v>
       </c>
     </row>
@@ -12364,15 +11413,12 @@
         <v>3.6</v>
       </c>
       <c r="C319">
-        <f>VLOOKUP(A319,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D319">
-        <f>VLOOKUP(A319,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.3</v>
       </c>
       <c r="E319" s="7">
-        <f>VLOOKUP(A319,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>557000</v>
       </c>
     </row>
@@ -12384,15 +11430,12 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C320">
-        <f>VLOOKUP(A320,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D320">
-        <f>VLOOKUP(A320,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.8</v>
       </c>
       <c r="E320" s="7">
-        <f>VLOOKUP(A320,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>582500</v>
       </c>
     </row>
@@ -12404,15 +11447,12 @@
         <v>6.95</v>
       </c>
       <c r="C321">
-        <f>VLOOKUP(A321,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D321">
-        <f>VLOOKUP(A321,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.5</v>
       </c>
       <c r="E321" s="7">
-        <f>VLOOKUP(A321,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3700000</v>
       </c>
     </row>
@@ -12424,15 +11464,12 @@
         <v>2.93</v>
       </c>
       <c r="C322">
-        <f>VLOOKUP(A322,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D322">
-        <f>VLOOKUP(A322,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.8</v>
       </c>
       <c r="E322" s="7">
-        <f>VLOOKUP(A322,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1800000</v>
       </c>
     </row>
@@ -12444,15 +11481,12 @@
         <v>5</v>
       </c>
       <c r="C323">
-        <f>VLOOKUP(A323,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>13</v>
       </c>
       <c r="D323">
-        <f>VLOOKUP(A323,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E323" s="7">
-        <f>VLOOKUP(A323,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>7750000</v>
       </c>
     </row>
@@ -12464,15 +11498,12 @@
         <v>3.16</v>
       </c>
       <c r="C324">
-        <f>VLOOKUP(A324,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D324">
-        <f>VLOOKUP(A324,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E324" s="7">
-        <f>VLOOKUP(A324,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>575000</v>
       </c>
     </row>
@@ -12484,15 +11515,12 @@
         <v>4.75</v>
       </c>
       <c r="C325">
-        <f>VLOOKUP(A325,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D325">
-        <f>VLOOKUP(A325,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E325" s="7">
-        <f>VLOOKUP(A325,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>9250000</v>
       </c>
     </row>
@@ -12504,15 +11532,12 @@
         <v>3.87</v>
       </c>
       <c r="C326">
-        <f>VLOOKUP(A326,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D326">
-        <f>VLOOKUP(A326,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>4.2</v>
       </c>
       <c r="E326" s="7">
-        <f>VLOOKUP(A326,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>4500000</v>
       </c>
     </row>
@@ -12524,15 +11549,12 @@
         <v>4.49</v>
       </c>
       <c r="C327">
-        <f>VLOOKUP(A327,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D327">
-        <f>VLOOKUP(A327,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.9</v>
       </c>
       <c r="E327" s="7">
-        <f>VLOOKUP(A327,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1275000</v>
       </c>
     </row>
@@ -12544,15 +11566,12 @@
         <v>4.72</v>
       </c>
       <c r="C328">
-        <f>VLOOKUP(A328,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D328">
-        <f>VLOOKUP(A328,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E328" s="7">
-        <f>VLOOKUP(A328,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>9167000</v>
       </c>
     </row>
@@ -12564,15 +11583,12 @@
         <v>9</v>
       </c>
       <c r="C329">
-        <f>VLOOKUP(A329,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D329">
-        <f>VLOOKUP(A329,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1.6</v>
       </c>
       <c r="E329" s="7">
-        <f>VLOOKUP(A329,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>5000000</v>
       </c>
     </row>
@@ -12584,15 +11600,12 @@
         <v>1.69</v>
       </c>
       <c r="C330">
-        <f>VLOOKUP(A330,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="D330">
-        <f>VLOOKUP(A330,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E330" s="7">
-        <f>VLOOKUP(A330,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>9000000</v>
       </c>
     </row>
@@ -12604,15 +11617,12 @@
         <v>2.25</v>
       </c>
       <c r="C331">
-        <f>VLOOKUP(A331,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D331">
-        <f>VLOOKUP(A331,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.4</v>
       </c>
       <c r="E331" s="7">
-        <f>VLOOKUP(A331,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1300000</v>
       </c>
     </row>
@@ -12624,15 +11634,12 @@
         <v>3.51</v>
       </c>
       <c r="C332">
-        <f>VLOOKUP(A332,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D332">
-        <f>VLOOKUP(A332,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3.6</v>
       </c>
       <c r="E332" s="7">
-        <f>VLOOKUP(A332,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>9500000</v>
       </c>
     </row>
@@ -12644,15 +11651,12 @@
         <v>9.33</v>
       </c>
       <c r="C333">
-        <f>VLOOKUP(A333,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D333">
-        <f>VLOOKUP(A333,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.6</v>
       </c>
       <c r="E333" s="7">
-        <f>VLOOKUP(A333,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2500000</v>
       </c>
     </row>
@@ -12664,15 +11668,12 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C334">
-        <f>VLOOKUP(A334,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D334">
-        <f>VLOOKUP(A334,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E334" s="7">
-        <f>VLOOKUP(A334,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560900</v>
       </c>
     </row>
@@ -12684,15 +11685,12 @@
         <v>2.63</v>
       </c>
       <c r="C335">
-        <f>VLOOKUP(A335,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D335">
-        <f>VLOOKUP(A335,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.8</v>
       </c>
       <c r="E335" s="7">
-        <f>VLOOKUP(A335,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>6500000</v>
       </c>
     </row>
@@ -12704,15 +11702,12 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="C336">
-        <f>VLOOKUP(A336,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D336">
-        <f>VLOOKUP(A336,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E336" s="7">
-        <f>VLOOKUP(A336,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1300000</v>
       </c>
     </row>
@@ -12724,15 +11719,12 @@
         <v>1.9</v>
       </c>
       <c r="C337">
-        <f>VLOOKUP(A337,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D337">
-        <f>VLOOKUP(A337,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="E337" s="7">
-        <f>VLOOKUP(A337,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>9000000</v>
       </c>
     </row>
@@ -12743,16 +11735,13 @@
       <c r="B338">
         <v>3.33</v>
       </c>
-      <c r="C338" t="str">
-        <f>VLOOKUP(A338,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
-        <v>1st</v>
+      <c r="C338" t="s">
+        <v>349</v>
       </c>
       <c r="D338">
-        <f>VLOOKUP(A338,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.7</v>
       </c>
       <c r="E338" s="7">
-        <f>VLOOKUP(A338,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -12764,15 +11753,12 @@
         <v>6.16</v>
       </c>
       <c r="C339">
-        <f>VLOOKUP(A339,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D339">
-        <f>VLOOKUP(A339,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E339" s="7">
-        <f>VLOOKUP(A339,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560100</v>
       </c>
     </row>
@@ -12784,15 +11770,12 @@
         <v>4.55</v>
       </c>
       <c r="C340">
-        <f>VLOOKUP(A340,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D340">
-        <f>VLOOKUP(A340,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.3</v>
       </c>
       <c r="E340" s="7">
-        <f>VLOOKUP(A340,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1800000</v>
       </c>
     </row>
@@ -12804,15 +11787,12 @@
         <v>4.21</v>
       </c>
       <c r="C341">
-        <f>VLOOKUP(A341,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D341">
-        <f>VLOOKUP(A341,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.3</v>
       </c>
       <c r="E341" s="7">
-        <f>VLOOKUP(A341,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1800000</v>
       </c>
     </row>
@@ -12824,15 +11804,12 @@
         <v>5.04</v>
       </c>
       <c r="C342">
-        <f>VLOOKUP(A342,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D342">
-        <f>VLOOKUP(A342,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.3</v>
       </c>
       <c r="E342" s="7">
-        <f>VLOOKUP(A342,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1800000</v>
       </c>
     </row>
@@ -12844,15 +11821,12 @@
         <v>5.45</v>
       </c>
       <c r="C343">
-        <f>VLOOKUP(A343,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D343">
-        <f>VLOOKUP(A343,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E343" s="7">
-        <f>VLOOKUP(A343,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>565000</v>
       </c>
     </row>
@@ -12864,15 +11838,12 @@
         <v>3.52</v>
       </c>
       <c r="C344">
-        <f>VLOOKUP(A344,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D344">
-        <f>VLOOKUP(A344,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E344" s="7">
-        <f>VLOOKUP(A344,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>565000</v>
       </c>
     </row>
@@ -12884,15 +11855,12 @@
         <v>6.98</v>
       </c>
       <c r="C345">
-        <f>VLOOKUP(A345,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D345">
-        <f>VLOOKUP(A345,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E345" s="7">
-        <f>VLOOKUP(A345,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>565000</v>
       </c>
     </row>
@@ -12904,15 +11872,12 @@
         <v>3.82</v>
       </c>
       <c r="C346">
-        <f>VLOOKUP(A346,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D346">
-        <f>VLOOKUP(A346,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="E346" s="7">
-        <f>VLOOKUP(A346,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>8575000</v>
       </c>
     </row>
@@ -12924,15 +11889,12 @@
         <v>4.12</v>
       </c>
       <c r="C347">
-        <f>VLOOKUP(A347,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D347">
-        <f>VLOOKUP(A347,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E347" s="7">
-        <f>VLOOKUP(A347,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3110000</v>
       </c>
     </row>
@@ -12944,15 +11906,12 @@
         <v>4.58</v>
       </c>
       <c r="C348">
-        <f>VLOOKUP(A348,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D348">
-        <f>VLOOKUP(A348,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E348" s="7">
-        <f>VLOOKUP(A348,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>569000</v>
       </c>
     </row>
@@ -12964,15 +11923,12 @@
         <v>5.29</v>
       </c>
       <c r="C349">
-        <f>VLOOKUP(A349,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D349">
-        <f>VLOOKUP(A349,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.9</v>
       </c>
       <c r="E349" s="7">
-        <f>VLOOKUP(A349,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>564600</v>
       </c>
     </row>
@@ -12984,15 +11940,12 @@
         <v>5.67</v>
       </c>
       <c r="C350">
-        <f>VLOOKUP(A350,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D350">
-        <f>VLOOKUP(A350,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E350" s="7">
-        <f>VLOOKUP(A350,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>570000</v>
       </c>
     </row>
@@ -13004,15 +11957,12 @@
         <v>6.09</v>
       </c>
       <c r="C351">
-        <f>VLOOKUP(A351,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D351">
-        <f>VLOOKUP(A351,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E351" s="7">
-        <f>VLOOKUP(A351,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>570000</v>
       </c>
     </row>
@@ -13024,15 +11974,12 @@
         <v>3.18</v>
       </c>
       <c r="C352">
-        <f>VLOOKUP(A352,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D352">
-        <f>VLOOKUP(A352,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E352" s="7">
-        <f>VLOOKUP(A352,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>570000</v>
       </c>
     </row>
@@ -13044,15 +11991,12 @@
         <v>5.8</v>
       </c>
       <c r="C353">
-        <f>VLOOKUP(A353,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D353">
-        <f>VLOOKUP(A353,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E353" s="7">
-        <f>VLOOKUP(A353,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2250000</v>
       </c>
     </row>
@@ -13064,15 +12008,12 @@
         <v>3</v>
       </c>
       <c r="C354">
-        <f>VLOOKUP(A354,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D354">
-        <f>VLOOKUP(A354,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E354" s="7">
-        <f>VLOOKUP(A354,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2500000</v>
       </c>
     </row>
@@ -13084,15 +12025,12 @@
         <v>5.12</v>
       </c>
       <c r="C355">
-        <f>VLOOKUP(A355,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D355">
-        <f>VLOOKUP(A355,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E355" s="7">
-        <f>VLOOKUP(A355,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3500000</v>
       </c>
     </row>
@@ -13104,15 +12042,12 @@
         <v>3.98</v>
       </c>
       <c r="C356">
-        <f>VLOOKUP(A356,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>17</v>
       </c>
       <c r="D356">
-        <f>VLOOKUP(A356,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.4</v>
       </c>
       <c r="E356" s="7">
-        <f>VLOOKUP(A356,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2500000</v>
       </c>
     </row>
@@ -13124,15 +12059,12 @@
         <v>4.91</v>
       </c>
       <c r="C357">
-        <f>VLOOKUP(A357,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D357">
-        <f>VLOOKUP(A357,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E357" s="7">
-        <f>VLOOKUP(A357,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -13144,15 +12076,12 @@
         <v>2.71</v>
       </c>
       <c r="C358">
-        <f>VLOOKUP(A358,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="D358">
-        <f>VLOOKUP(A358,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="E358" s="7">
-        <f>VLOOKUP(A358,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>5500000</v>
       </c>
     </row>
@@ -13164,15 +12093,12 @@
         <v>3.41</v>
       </c>
       <c r="C359">
-        <f>VLOOKUP(A359,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D359">
-        <f>VLOOKUP(A359,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.3</v>
       </c>
       <c r="E359" s="7">
-        <f>VLOOKUP(A359,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2500000</v>
       </c>
     </row>
@@ -13184,15 +12110,12 @@
         <v>3.63</v>
       </c>
       <c r="C360">
-        <f>VLOOKUP(A360,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D360">
-        <f>VLOOKUP(A360,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.3</v>
       </c>
       <c r="E360" s="7">
-        <f>VLOOKUP(A360,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2500000</v>
       </c>
     </row>
@@ -13204,15 +12127,12 @@
         <v>3.18</v>
       </c>
       <c r="C361">
-        <f>VLOOKUP(A361,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D361">
-        <f>VLOOKUP(A361,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.3</v>
       </c>
       <c r="E361" s="7">
-        <f>VLOOKUP(A361,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2500000</v>
       </c>
     </row>
@@ -13224,15 +12144,12 @@
         <v>4.01</v>
       </c>
       <c r="C362">
-        <f>VLOOKUP(A362,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D362">
-        <f>VLOOKUP(A362,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.4</v>
       </c>
       <c r="E362" s="7">
-        <f>VLOOKUP(A362,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>8000000</v>
       </c>
     </row>
@@ -13244,15 +12161,12 @@
         <v>5.38</v>
       </c>
       <c r="C363">
-        <f>VLOOKUP(A363,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D363">
-        <f>VLOOKUP(A363,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.5</v>
       </c>
       <c r="E363" s="7">
-        <f>VLOOKUP(A363,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>598000</v>
       </c>
     </row>
@@ -13264,15 +12178,12 @@
         <v>5.52</v>
       </c>
       <c r="C364">
-        <f>VLOOKUP(A364,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="D364">
-        <f>VLOOKUP(A364,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E364" s="7">
-        <f>VLOOKUP(A364,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>21125000</v>
       </c>
     </row>
@@ -13284,15 +12195,12 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C365">
-        <f>VLOOKUP(A365,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D365">
-        <f>VLOOKUP(A365,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.7</v>
       </c>
       <c r="E365" s="7">
-        <f>VLOOKUP(A365,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2900000</v>
       </c>
     </row>
@@ -13304,15 +12212,12 @@
         <v>4.28</v>
       </c>
       <c r="C366">
-        <f>VLOOKUP(A366,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="D366">
-        <f>VLOOKUP(A366,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.8</v>
       </c>
       <c r="E366" s="7">
-        <f>VLOOKUP(A366,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>31000000</v>
       </c>
     </row>
@@ -13324,15 +12229,12 @@
         <v>8.1</v>
       </c>
       <c r="C367">
-        <f>VLOOKUP(A367,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D367">
-        <f>VLOOKUP(A367,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E367" s="7">
-        <f>VLOOKUP(A367,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>559000</v>
       </c>
     </row>
@@ -13344,15 +12246,12 @@
         <v>4.68</v>
       </c>
       <c r="C368">
-        <f>VLOOKUP(A368,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D368">
-        <f>VLOOKUP(A368,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E368" s="7">
-        <f>VLOOKUP(A368,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>10500000</v>
       </c>
     </row>
@@ -13364,15 +12263,12 @@
         <v>4.5</v>
       </c>
       <c r="C369">
-        <f>VLOOKUP(A369,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D369">
-        <f>VLOOKUP(A369,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="E369" s="7">
-        <f>VLOOKUP(A369,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1901000</v>
       </c>
     </row>
@@ -13384,15 +12280,12 @@
         <v>3.99</v>
       </c>
       <c r="C370">
-        <f>VLOOKUP(A370,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D370">
-        <f>VLOOKUP(A370,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.9</v>
       </c>
       <c r="E370" s="7">
-        <f>VLOOKUP(A370,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>569000</v>
       </c>
     </row>
@@ -13404,15 +12297,12 @@
         <v>5.4</v>
       </c>
       <c r="C371">
-        <f>VLOOKUP(A371,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D371">
-        <f>VLOOKUP(A371,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E371" s="7">
-        <f>VLOOKUP(A371,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>573500</v>
       </c>
     </row>
@@ -13424,15 +12314,12 @@
         <v>4.34</v>
       </c>
       <c r="C372">
-        <f>VLOOKUP(A372,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D372">
-        <f>VLOOKUP(A372,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.8</v>
       </c>
       <c r="E372" s="7">
-        <f>VLOOKUP(A372,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>6050000</v>
       </c>
     </row>
@@ -13444,15 +12331,12 @@
         <v>15</v>
       </c>
       <c r="C373">
-        <f>VLOOKUP(A373,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D373">
-        <f>VLOOKUP(A373,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E373" s="7">
-        <f>VLOOKUP(A373,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>564600</v>
       </c>
     </row>
@@ -13464,15 +12348,12 @@
         <v>18</v>
       </c>
       <c r="C374">
-        <f>VLOOKUP(A374,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>13</v>
       </c>
       <c r="D374">
-        <f>VLOOKUP(A374,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1.1000000000000001</v>
       </c>
       <c r="E374" s="7">
-        <f>VLOOKUP(A374,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1000000</v>
       </c>
     </row>
@@ -13484,15 +12365,12 @@
         <v>5.96</v>
       </c>
       <c r="C375">
-        <f>VLOOKUP(A375,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="D375">
-        <f>VLOOKUP(A375,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E375" s="7">
-        <f>VLOOKUP(A375,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3000000</v>
       </c>
     </row>
@@ -13504,15 +12382,12 @@
         <v>8.31</v>
       </c>
       <c r="C376">
-        <f>VLOOKUP(A376,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D376">
-        <f>VLOOKUP(A376,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E376" s="7">
-        <f>VLOOKUP(A376,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>7000000</v>
       </c>
     </row>
@@ -13524,15 +12399,12 @@
         <v>5.4</v>
       </c>
       <c r="C377">
-        <f>VLOOKUP(A377,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="D377">
-        <f>VLOOKUP(A377,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E377" s="7">
-        <f>VLOOKUP(A377,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>10000000</v>
       </c>
     </row>
@@ -13544,15 +12416,12 @@
         <v>2.48</v>
       </c>
       <c r="C378">
-        <f>VLOOKUP(A378,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D378">
-        <f>VLOOKUP(A378,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.6</v>
       </c>
       <c r="E378" s="7">
-        <f>VLOOKUP(A378,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1400000</v>
       </c>
     </row>
@@ -13564,15 +12433,12 @@
         <v>5.66</v>
       </c>
       <c r="C379">
-        <f>VLOOKUP(A379,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>17</v>
       </c>
       <c r="D379">
-        <f>VLOOKUP(A379,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.5</v>
       </c>
       <c r="E379" s="7">
-        <f>VLOOKUP(A379,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>5250000</v>
       </c>
     </row>
@@ -13584,15 +12450,12 @@
         <v>9.42</v>
       </c>
       <c r="C380">
-        <f>VLOOKUP(A380,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>17</v>
       </c>
       <c r="D380">
-        <f>VLOOKUP(A380,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.5</v>
       </c>
       <c r="E380" s="7">
-        <f>VLOOKUP(A380,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>5250000</v>
       </c>
     </row>
@@ -13604,15 +12467,12 @@
         <v>4.05</v>
       </c>
       <c r="C381">
-        <f>VLOOKUP(A381,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>17</v>
       </c>
       <c r="D381">
-        <f>VLOOKUP(A381,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.5</v>
       </c>
       <c r="E381" s="7">
-        <f>VLOOKUP(A381,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>5250000</v>
       </c>
     </row>
@@ -13624,15 +12484,12 @@
         <v>5.19</v>
       </c>
       <c r="C382">
-        <f>VLOOKUP(A382,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D382">
-        <f>VLOOKUP(A382,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="E382" s="7">
-        <f>VLOOKUP(A382,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>4200000</v>
       </c>
     </row>
@@ -13644,15 +12501,12 @@
         <v>5.64</v>
       </c>
       <c r="C383">
-        <f>VLOOKUP(A383,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D383">
-        <f>VLOOKUP(A383,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1.3</v>
       </c>
       <c r="E383" s="7">
-        <f>VLOOKUP(A383,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>561250</v>
       </c>
     </row>
@@ -13664,15 +12518,12 @@
         <v>3.81</v>
       </c>
       <c r="C384">
-        <f>VLOOKUP(A384,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D384">
-        <f>VLOOKUP(A384,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>5.9</v>
       </c>
       <c r="E384" s="7">
-        <f>VLOOKUP(A384,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>4300000</v>
       </c>
     </row>
@@ -13684,15 +12535,12 @@
         <v>3.72</v>
       </c>
       <c r="C385">
-        <f>VLOOKUP(A385,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D385">
-        <f>VLOOKUP(A385,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.9</v>
       </c>
       <c r="E385" s="7">
-        <f>VLOOKUP(A385,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>650000</v>
       </c>
     </row>
@@ -13704,15 +12552,12 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="C386">
-        <f>VLOOKUP(A386,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D386">
-        <f>VLOOKUP(A386,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E386" s="7">
-        <f>VLOOKUP(A386,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1275000</v>
       </c>
     </row>
@@ -13724,15 +12569,12 @@
         <v>2.61</v>
       </c>
       <c r="C387">
-        <f>VLOOKUP(A387,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D387">
-        <f>VLOOKUP(A387,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.5</v>
       </c>
       <c r="E387" s="7">
-        <f>VLOOKUP(A387,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1525000</v>
       </c>
     </row>
@@ -13744,15 +12586,12 @@
         <v>27</v>
       </c>
       <c r="C388">
-        <f>VLOOKUP(A388,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D388">
-        <f>VLOOKUP(A388,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.6</v>
       </c>
       <c r="E388" s="7">
-        <f>VLOOKUP(A388,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1800000</v>
       </c>
     </row>
@@ -13764,15 +12603,12 @@
         <v>3.71</v>
       </c>
       <c r="C389">
-        <f>VLOOKUP(A389,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D389">
-        <f>VLOOKUP(A389,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E389" s="7">
-        <f>VLOOKUP(A389,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>4500000</v>
       </c>
     </row>
@@ -13784,15 +12620,12 @@
         <v>5.48</v>
       </c>
       <c r="C390">
-        <f>VLOOKUP(A390,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D390">
-        <f>VLOOKUP(A390,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E390" s="7">
-        <f>VLOOKUP(A390,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1000000</v>
       </c>
     </row>
@@ -13804,15 +12637,12 @@
         <v>6.11</v>
       </c>
       <c r="C391">
-        <f>VLOOKUP(A391,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D391">
-        <f>VLOOKUP(A391,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E391" s="7">
-        <f>VLOOKUP(A391,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>5750000</v>
       </c>
     </row>
@@ -13824,15 +12654,12 @@
         <v>27</v>
       </c>
       <c r="C392">
-        <f>VLOOKUP(A392,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D392">
-        <f>VLOOKUP(A392,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E392" s="7">
-        <f>VLOOKUP(A392,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>559300</v>
       </c>
     </row>
@@ -13844,15 +12671,12 @@
         <v>36</v>
       </c>
       <c r="C393">
-        <f>VLOOKUP(A393,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D393">
-        <f>VLOOKUP(A393,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E393" s="7">
-        <f>VLOOKUP(A393,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1687500</v>
       </c>
     </row>
@@ -13864,15 +12688,12 @@
         <v>3.54</v>
       </c>
       <c r="C394">
-        <f>VLOOKUP(A394,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D394">
-        <f>VLOOKUP(A394,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.2</v>
       </c>
       <c r="E394" s="7">
-        <f>VLOOKUP(A394,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -13884,15 +12705,12 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C395">
-        <f>VLOOKUP(A395,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D395">
-        <f>VLOOKUP(A395,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E395" s="7">
-        <f>VLOOKUP(A395,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>17900000</v>
       </c>
     </row>
@@ -13904,15 +12722,12 @@
         <v>4.95</v>
       </c>
       <c r="C396">
-        <f>VLOOKUP(A396,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>19</v>
       </c>
       <c r="D396">
-        <f>VLOOKUP(A396,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.4</v>
       </c>
       <c r="E396" s="7">
-        <f>VLOOKUP(A396,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>8000000</v>
       </c>
     </row>
@@ -13924,15 +12739,12 @@
         <v>4.5</v>
       </c>
       <c r="C397">
-        <f>VLOOKUP(A397,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D397">
-        <f>VLOOKUP(A397,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="E397" s="7">
-        <f>VLOOKUP(A397,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>4500000</v>
       </c>
     </row>
@@ -13944,15 +12756,12 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C398">
-        <f>VLOOKUP(A398,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D398">
-        <f>VLOOKUP(A398,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.4</v>
       </c>
       <c r="E398" s="7">
-        <f>VLOOKUP(A398,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>15000000</v>
       </c>
     </row>
@@ -13964,15 +12773,12 @@
         <v>3.52</v>
       </c>
       <c r="C399">
-        <f>VLOOKUP(A399,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="D399">
-        <f>VLOOKUP(A399,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E399" s="7">
-        <f>VLOOKUP(A399,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>19800000</v>
       </c>
     </row>
@@ -13984,15 +12790,12 @@
         <v>5.89</v>
       </c>
       <c r="C400">
-        <f>VLOOKUP(A400,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D400">
-        <f>VLOOKUP(A400,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E400" s="7">
-        <f>VLOOKUP(A400,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3900000</v>
       </c>
     </row>
@@ -14004,15 +12807,12 @@
         <v>6.07</v>
       </c>
       <c r="C401">
-        <f>VLOOKUP(A401,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D401">
-        <f>VLOOKUP(A401,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E401" s="7">
-        <f>VLOOKUP(A401,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3900000</v>
       </c>
     </row>
@@ -14024,15 +12824,12 @@
         <v>4.82</v>
       </c>
       <c r="C402">
-        <f>VLOOKUP(A402,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D402">
-        <f>VLOOKUP(A402,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E402" s="7">
-        <f>VLOOKUP(A402,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3900000</v>
       </c>
     </row>
@@ -14044,15 +12841,12 @@
         <v>3.85</v>
       </c>
       <c r="C403">
-        <f>VLOOKUP(A403,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>14</v>
       </c>
       <c r="D403">
-        <f>VLOOKUP(A403,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3.3</v>
       </c>
       <c r="E403" s="7">
-        <f>VLOOKUP(A403,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>6000000</v>
       </c>
     </row>
@@ -14064,15 +12858,12 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="C404">
-        <f>VLOOKUP(A404,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>15</v>
       </c>
       <c r="D404">
-        <f>VLOOKUP(A404,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E404" s="7">
-        <f>VLOOKUP(A404,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>100000</v>
       </c>
     </row>
@@ -14084,15 +12875,12 @@
         <v>2.92</v>
       </c>
       <c r="C405">
-        <f>VLOOKUP(A405,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="D405">
-        <f>VLOOKUP(A405,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>5.7</v>
       </c>
       <c r="E405" s="7">
-        <f>VLOOKUP(A405,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>37505562</v>
       </c>
     </row>
@@ -14104,15 +12892,12 @@
         <v>6.71</v>
       </c>
       <c r="C406">
-        <f>VLOOKUP(A406,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D406">
-        <f>VLOOKUP(A406,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.9</v>
       </c>
       <c r="E406" s="7">
-        <f>VLOOKUP(A406,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>560000</v>
       </c>
     </row>
@@ -14124,15 +12909,12 @@
         <v>1.5</v>
       </c>
       <c r="C407">
-        <f>VLOOKUP(A407,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D407">
-        <f>VLOOKUP(A407,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.6</v>
       </c>
       <c r="E407" s="7">
-        <f>VLOOKUP(A407,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>4500000</v>
       </c>
     </row>
@@ -14144,15 +12926,12 @@
         <v>5.38</v>
       </c>
       <c r="C408">
-        <f>VLOOKUP(A408,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D408">
-        <f>VLOOKUP(A408,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="E408" s="7">
-        <f>VLOOKUP(A408,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>8500000</v>
       </c>
     </row>
@@ -14164,15 +12943,12 @@
         <v>1.57</v>
       </c>
       <c r="C409">
-        <f>VLOOKUP(A409,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D409">
-        <f>VLOOKUP(A409,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.2</v>
       </c>
       <c r="E409" s="7">
-        <f>VLOOKUP(A409,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3500000</v>
       </c>
     </row>
@@ -14184,15 +12960,12 @@
         <v>9</v>
       </c>
       <c r="C410">
-        <f>VLOOKUP(A410,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D410">
-        <f>VLOOKUP(A410,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E410" s="7">
-        <f>VLOOKUP(A410,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>900000</v>
       </c>
     </row>
@@ -14204,15 +12977,12 @@
         <v>4.71</v>
       </c>
       <c r="C411">
-        <f>VLOOKUP(A411,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="D411">
-        <f>VLOOKUP(A411,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="E411" s="7">
-        <f>VLOOKUP(A411,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1000000</v>
       </c>
     </row>
@@ -14224,15 +12994,12 @@
         <v>4.29</v>
       </c>
       <c r="C412">
-        <f>VLOOKUP(A412,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D412">
-        <f>VLOOKUP(A412,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.9</v>
       </c>
       <c r="E412" s="7">
-        <f>VLOOKUP(A412,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3700000</v>
       </c>
     </row>
@@ -14244,15 +13011,12 @@
         <v>9</v>
       </c>
       <c r="C413">
-        <f>VLOOKUP(A413,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D413">
-        <f>VLOOKUP(A413,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.5</v>
       </c>
       <c r="E413" s="7">
-        <f>VLOOKUP(A413,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>568175</v>
       </c>
     </row>
@@ -14264,15 +13028,12 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="C414">
-        <f>VLOOKUP(A414,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D414">
-        <f>VLOOKUP(A414,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.7</v>
       </c>
       <c r="E414" s="7">
-        <f>VLOOKUP(A414,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>556500</v>
       </c>
     </row>
@@ -14284,15 +13045,12 @@
         <v>1.8</v>
       </c>
       <c r="C415">
-        <f>VLOOKUP(A415,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>13</v>
       </c>
       <c r="D415">
-        <f>VLOOKUP(A415,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.6</v>
       </c>
       <c r="E415" s="7">
-        <f>VLOOKUP(A415,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>8000000</v>
       </c>
     </row>
@@ -14304,15 +13062,12 @@
         <v>6.24</v>
       </c>
       <c r="C416">
-        <f>VLOOKUP(A416,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D416">
-        <f>VLOOKUP(A416,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E416" s="7">
-        <f>VLOOKUP(A416,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>7000000</v>
       </c>
     </row>
@@ -14324,15 +13079,12 @@
         <v>8.42</v>
       </c>
       <c r="C417">
-        <f>VLOOKUP(A417,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D417">
-        <f>VLOOKUP(A417,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E417" s="7">
-        <f>VLOOKUP(A417,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>7000000</v>
       </c>
     </row>
@@ -14344,15 +13096,12 @@
         <v>4.45</v>
       </c>
       <c r="C418">
-        <f>VLOOKUP(A418,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D418">
-        <f>VLOOKUP(A418,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E418" s="7">
-        <f>VLOOKUP(A418,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>7000000</v>
       </c>
     </row>
@@ -14364,15 +13113,12 @@
         <v>4.29</v>
       </c>
       <c r="C419">
-        <f>VLOOKUP(A419,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D419">
-        <f>VLOOKUP(A419,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.4</v>
       </c>
       <c r="E419" s="7">
-        <f>VLOOKUP(A419,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>573700</v>
       </c>
     </row>
@@ -14384,15 +13130,12 @@
         <v>6.21</v>
       </c>
       <c r="C420">
-        <f>VLOOKUP(A420,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D420">
-        <f>VLOOKUP(A420,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.5</v>
       </c>
       <c r="E420" s="7">
-        <f>VLOOKUP(A420,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>565000</v>
       </c>
     </row>
@@ -14404,15 +13147,12 @@
         <v>4.3</v>
       </c>
       <c r="C421">
-        <f>VLOOKUP(A421,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="D421">
-        <f>VLOOKUP(A421,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.4</v>
       </c>
       <c r="E421" s="7">
-        <f>VLOOKUP(A421,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>6500000</v>
       </c>
     </row>
@@ -14424,15 +13164,12 @@
         <v>6.4</v>
       </c>
       <c r="C422">
-        <f>VLOOKUP(A422,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D422">
-        <f>VLOOKUP(A422,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E422" s="7">
-        <f>VLOOKUP(A422,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>557000</v>
       </c>
     </row>
@@ -14444,15 +13181,12 @@
         <v>3.29</v>
       </c>
       <c r="C423">
-        <f>VLOOKUP(A423,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D423">
-        <f>VLOOKUP(A423,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E423" s="7">
-        <f>VLOOKUP(A423,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2250000</v>
       </c>
     </row>
@@ -14464,15 +13198,12 @@
         <v>3.97</v>
       </c>
       <c r="C424">
-        <f>VLOOKUP(A424,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D424">
-        <f>VLOOKUP(A424,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.8</v>
       </c>
       <c r="E424" s="7">
-        <f>VLOOKUP(A424,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>564200</v>
       </c>
     </row>
@@ -14484,15 +13215,12 @@
         <v>3.4</v>
       </c>
       <c r="C425">
-        <f>VLOOKUP(A425,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D425">
-        <f>VLOOKUP(A425,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.8</v>
       </c>
       <c r="E425" s="7">
-        <f>VLOOKUP(A425,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>564200</v>
       </c>
     </row>
@@ -14504,15 +13232,12 @@
         <v>5.48</v>
       </c>
       <c r="C426">
-        <f>VLOOKUP(A426,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D426">
-        <f>VLOOKUP(A426,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.8</v>
       </c>
       <c r="E426" s="7">
-        <f>VLOOKUP(A426,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>564200</v>
       </c>
     </row>
@@ -14524,15 +13249,12 @@
         <v>6.28</v>
       </c>
       <c r="C427">
-        <f>VLOOKUP(A427,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D427">
-        <f>VLOOKUP(A427,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E427" s="7">
-        <f>VLOOKUP(A427,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>575000</v>
       </c>
     </row>
@@ -14544,15 +13266,12 @@
         <v>3.76</v>
       </c>
       <c r="C428">
-        <f>VLOOKUP(A428,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D428">
-        <f>VLOOKUP(A428,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.6</v>
       </c>
       <c r="E428" s="7">
-        <f>VLOOKUP(A428,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>565000</v>
       </c>
     </row>
@@ -14564,15 +13283,12 @@
         <v>10.130000000000001</v>
       </c>
       <c r="C429">
-        <f>VLOOKUP(A429,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D429">
-        <f>VLOOKUP(A429,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.8</v>
       </c>
       <c r="E429" s="7">
-        <f>VLOOKUP(A429,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>559900</v>
       </c>
     </row>
@@ -14584,15 +13300,12 @@
         <v>4.71</v>
       </c>
       <c r="C430">
-        <f>VLOOKUP(A430,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D430">
-        <f>VLOOKUP(A430,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.3</v>
       </c>
       <c r="E430" s="7">
-        <f>VLOOKUP(A430,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>581700</v>
       </c>
     </row>
@@ -14604,15 +13317,12 @@
         <v>9.82</v>
       </c>
       <c r="C431">
-        <f>VLOOKUP(A431,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D431">
-        <f>VLOOKUP(A431,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-1.3</v>
       </c>
       <c r="E431" s="7">
-        <f>VLOOKUP(A431,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>575000</v>
       </c>
     </row>
@@ -14624,15 +13334,12 @@
         <v>3.32</v>
       </c>
       <c r="C432">
-        <f>VLOOKUP(A432,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D432">
-        <f>VLOOKUP(A432,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>6.4</v>
       </c>
       <c r="E432" s="7">
-        <f>VLOOKUP(A432,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>38333333</v>
       </c>
     </row>
@@ -14644,15 +13351,12 @@
         <v>5.57</v>
       </c>
       <c r="C433">
-        <f>VLOOKUP(A433,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D433">
-        <f>VLOOKUP(A433,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E433" s="7">
-        <f>VLOOKUP(A433,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>567500</v>
       </c>
     </row>
@@ -14664,15 +13368,12 @@
         <v>8.59</v>
       </c>
       <c r="C434">
-        <f>VLOOKUP(A434,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D434">
-        <f>VLOOKUP(A434,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E434" s="7">
-        <f>VLOOKUP(A434,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>567500</v>
       </c>
     </row>
@@ -14684,15 +13385,12 @@
         <v>3.66</v>
       </c>
       <c r="C435">
-        <f>VLOOKUP(A435,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D435">
-        <f>VLOOKUP(A435,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E435" s="7">
-        <f>VLOOKUP(A435,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>567500</v>
       </c>
     </row>
@@ -14704,15 +13402,12 @@
         <v>5.55</v>
       </c>
       <c r="C436">
-        <f>VLOOKUP(A436,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D436">
-        <f>VLOOKUP(A436,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E436" s="7">
-        <f>VLOOKUP(A436,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1300000</v>
       </c>
     </row>
@@ -14724,15 +13419,12 @@
         <v>8.1</v>
       </c>
       <c r="C437">
-        <f>VLOOKUP(A437,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D437">
-        <f>VLOOKUP(A437,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E437" s="7">
-        <f>VLOOKUP(A437,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1300000</v>
       </c>
     </row>
@@ -14744,15 +13436,12 @@
         <v>5.14</v>
       </c>
       <c r="C438">
-        <f>VLOOKUP(A438,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D438">
-        <f>VLOOKUP(A438,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E438" s="7">
-        <f>VLOOKUP(A438,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1300000</v>
       </c>
     </row>
@@ -14764,15 +13453,12 @@
         <v>3.47</v>
       </c>
       <c r="C439">
-        <f>VLOOKUP(A439,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D439">
-        <f>VLOOKUP(A439,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E439" s="7">
-        <f>VLOOKUP(A439,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>595000</v>
       </c>
     </row>
@@ -14784,15 +13470,12 @@
         <v>3.22</v>
       </c>
       <c r="C440">
-        <f>VLOOKUP(A440,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D440">
-        <f>VLOOKUP(A440,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3.2</v>
       </c>
       <c r="E440" s="7">
-        <f>VLOOKUP(A440,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>7400000</v>
       </c>
     </row>
@@ -14804,15 +13487,12 @@
         <v>2.96</v>
       </c>
       <c r="C441">
-        <f>VLOOKUP(A441,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D441">
-        <f>VLOOKUP(A441,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3.2</v>
       </c>
       <c r="E441" s="7">
-        <f>VLOOKUP(A441,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>7400000</v>
       </c>
     </row>
@@ -14824,15 +13504,12 @@
         <v>3.77</v>
       </c>
       <c r="C442">
-        <f>VLOOKUP(A442,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D442">
-        <f>VLOOKUP(A442,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3.2</v>
       </c>
       <c r="E442" s="7">
-        <f>VLOOKUP(A442,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>7400000</v>
       </c>
     </row>
@@ -14844,15 +13521,12 @@
         <v>4.97</v>
       </c>
       <c r="C443">
-        <f>VLOOKUP(A443,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="D443">
-        <f>VLOOKUP(A443,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="E443" s="7">
-        <f>VLOOKUP(A443,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>6250000</v>
       </c>
     </row>
@@ -14864,15 +13538,12 @@
         <v>4.34</v>
       </c>
       <c r="C444">
-        <f>VLOOKUP(A444,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D444">
-        <f>VLOOKUP(A444,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.3</v>
       </c>
       <c r="E444" s="7">
-        <f>VLOOKUP(A444,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>566600</v>
       </c>
     </row>
@@ -14884,15 +13555,12 @@
         <v>4.54</v>
       </c>
       <c r="C445">
-        <f>VLOOKUP(A445,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D445">
-        <f>VLOOKUP(A445,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E445" s="7">
-        <f>VLOOKUP(A445,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>562500</v>
       </c>
     </row>
@@ -14904,15 +13572,12 @@
         <v>0.49</v>
       </c>
       <c r="C446">
-        <f>VLOOKUP(A446,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D446">
-        <f>VLOOKUP(A446,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E446" s="7">
-        <f>VLOOKUP(A446,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>568300</v>
       </c>
     </row>
@@ -14924,15 +13589,12 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="C447">
-        <f>VLOOKUP(A447,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D447">
-        <f>VLOOKUP(A447,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E447" s="7">
-        <f>VLOOKUP(A447,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>8500000</v>
       </c>
     </row>
@@ -14944,15 +13606,12 @@
         <v>5.27</v>
       </c>
       <c r="C448">
-        <f>VLOOKUP(A448,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D448">
-        <f>VLOOKUP(A448,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E448" s="7">
-        <f>VLOOKUP(A448,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>8500000</v>
       </c>
     </row>
@@ -14964,15 +13623,12 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="C449">
-        <f>VLOOKUP(A449,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D449">
-        <f>VLOOKUP(A449,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E449" s="7">
-        <f>VLOOKUP(A449,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>8500000</v>
       </c>
     </row>
@@ -14984,15 +13640,12 @@
         <v>4.28</v>
       </c>
       <c r="C450">
-        <f>VLOOKUP(A450,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D450">
-        <f>VLOOKUP(A450,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.5</v>
       </c>
       <c r="E450" s="7">
-        <f>VLOOKUP(A450,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>6000000</v>
       </c>
     </row>
@@ -15004,15 +13657,12 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C451">
-        <f>VLOOKUP(A451,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D451">
-        <f>VLOOKUP(A451,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.3</v>
       </c>
       <c r="E451" s="7">
-        <f>VLOOKUP(A451,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>587500</v>
       </c>
     </row>
@@ -15024,15 +13674,12 @@
         <v>4.45</v>
       </c>
       <c r="C452">
-        <f>VLOOKUP(A452,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D452">
-        <f>VLOOKUP(A452,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.9</v>
       </c>
       <c r="E452" s="7">
-        <f>VLOOKUP(A452,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>22000000</v>
       </c>
     </row>
@@ -15044,15 +13691,12 @@
         <v>6.93</v>
       </c>
       <c r="C453">
-        <f>VLOOKUP(A453,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D453">
-        <f>VLOOKUP(A453,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.5</v>
       </c>
       <c r="E453" s="7">
-        <f>VLOOKUP(A453,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>557250</v>
       </c>
     </row>
@@ -15064,15 +13708,12 @@
         <v>3.81</v>
       </c>
       <c r="C454">
-        <f>VLOOKUP(A454,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D454">
-        <f>VLOOKUP(A454,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.5</v>
       </c>
       <c r="E454" s="7">
-        <f>VLOOKUP(A454,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>11166667</v>
       </c>
     </row>
@@ -15084,15 +13725,12 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="C455">
-        <f>VLOOKUP(A455,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D455">
-        <f>VLOOKUP(A455,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="E455" s="7">
-        <f>VLOOKUP(A455,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1525000</v>
       </c>
     </row>
@@ -15104,15 +13742,12 @@
         <v>7.71</v>
       </c>
       <c r="C456">
-        <f>VLOOKUP(A456,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D456">
-        <f>VLOOKUP(A456,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E456" s="7">
-        <f>VLOOKUP(A456,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1750000</v>
       </c>
     </row>
@@ -15123,16 +13758,13 @@
       <c r="B457">
         <v>4.84</v>
       </c>
-      <c r="C457" t="str">
-        <f>VLOOKUP(A457,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
-        <v>1st</v>
+      <c r="C457" t="s">
+        <v>349</v>
       </c>
       <c r="D457">
-        <f>VLOOKUP(A457,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.7</v>
       </c>
       <c r="E457" s="7">
-        <f>VLOOKUP(A457,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -15144,15 +13776,12 @@
         <v>3.74</v>
       </c>
       <c r="C458">
-        <f>VLOOKUP(A458,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D458">
-        <f>VLOOKUP(A458,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E458" s="7">
-        <f>VLOOKUP(A458,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1250000</v>
       </c>
     </row>
@@ -15164,15 +13793,12 @@
         <v>4.91</v>
       </c>
       <c r="C459">
-        <f>VLOOKUP(A459,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D459">
-        <f>VLOOKUP(A459,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E459" s="7">
-        <f>VLOOKUP(A459,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>6400000</v>
       </c>
     </row>
@@ -15184,15 +13810,12 @@
         <v>5.25</v>
       </c>
       <c r="C460">
-        <f>VLOOKUP(A460,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D460">
-        <f>VLOOKUP(A460,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.8</v>
       </c>
       <c r="E460" s="7">
-        <f>VLOOKUP(A460,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>557500</v>
       </c>
     </row>
@@ -15204,15 +13827,12 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="C461">
-        <f>VLOOKUP(A461,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D461">
-        <f>VLOOKUP(A461,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.5</v>
       </c>
       <c r="E461" s="7">
-        <f>VLOOKUP(A461,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1075000</v>
       </c>
     </row>
@@ -15224,15 +13844,12 @@
         <v>2.35</v>
       </c>
       <c r="C462">
-        <f>VLOOKUP(A462,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D462">
-        <f>VLOOKUP(A462,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.8</v>
       </c>
       <c r="E462" s="7">
-        <f>VLOOKUP(A462,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>568600</v>
       </c>
     </row>
@@ -15244,15 +13861,12 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="C463">
-        <f>VLOOKUP(A463,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D463">
-        <f>VLOOKUP(A463,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="E463" s="7">
-        <f>VLOOKUP(A463,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>556100</v>
       </c>
     </row>
@@ -15264,15 +13878,12 @@
         <v>5.21</v>
       </c>
       <c r="C464">
-        <f>VLOOKUP(A464,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D464">
-        <f>VLOOKUP(A464,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E464" s="7">
-        <f>VLOOKUP(A464,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3200000</v>
       </c>
     </row>
@@ -15284,15 +13895,12 @@
         <v>36</v>
       </c>
       <c r="C465">
-        <f>VLOOKUP(A465,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D465">
-        <f>VLOOKUP(A465,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E465" s="7">
-        <f>VLOOKUP(A465,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>562000</v>
       </c>
     </row>
@@ -15304,15 +13912,12 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="C466">
-        <f>VLOOKUP(A466,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D466">
-        <f>VLOOKUP(A466,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.4</v>
       </c>
       <c r="E466" s="7">
-        <f>VLOOKUP(A466,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>565000</v>
       </c>
     </row>
@@ -15324,15 +13929,12 @@
         <v>5.86</v>
       </c>
       <c r="C467">
-        <f>VLOOKUP(A467,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D467">
-        <f>VLOOKUP(A467,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.8</v>
       </c>
       <c r="E467" s="7">
-        <f>VLOOKUP(A467,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>566600</v>
       </c>
     </row>
@@ -15344,15 +13946,12 @@
         <v>4.51</v>
       </c>
       <c r="C468">
-        <f>VLOOKUP(A468,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>14</v>
       </c>
       <c r="D468">
-        <f>VLOOKUP(A468,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.4</v>
       </c>
       <c r="E468" s="7">
-        <f>VLOOKUP(A468,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>8000000</v>
       </c>
     </row>
@@ -15364,15 +13963,12 @@
         <v>4.01</v>
       </c>
       <c r="C469">
-        <f>VLOOKUP(A469,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>14</v>
       </c>
       <c r="D469">
-        <f>VLOOKUP(A469,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.4</v>
       </c>
       <c r="E469" s="7">
-        <f>VLOOKUP(A469,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>8000000</v>
       </c>
     </row>
@@ -15384,15 +13980,12 @@
         <v>5.37</v>
       </c>
       <c r="C470">
-        <f>VLOOKUP(A470,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>14</v>
       </c>
       <c r="D470">
-        <f>VLOOKUP(A470,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.4</v>
       </c>
       <c r="E470" s="7">
-        <f>VLOOKUP(A470,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>8000000</v>
       </c>
     </row>
@@ -15404,15 +13997,12 @@
         <v>1.65</v>
       </c>
       <c r="C471">
-        <f>VLOOKUP(A471,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D471">
-        <f>VLOOKUP(A471,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>2.9</v>
       </c>
       <c r="E471" s="7">
-        <f>VLOOKUP(A471,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>4500000</v>
       </c>
     </row>
@@ -15424,15 +14014,12 @@
         <v>4.91</v>
       </c>
       <c r="C472">
-        <f>VLOOKUP(A472,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D472">
-        <f>VLOOKUP(A472,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E472" s="7">
-        <f>VLOOKUP(A472,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2249000</v>
       </c>
     </row>
@@ -15444,15 +14031,12 @@
         <v>5.43</v>
       </c>
       <c r="C473">
-        <f>VLOOKUP(A473,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D473">
-        <f>VLOOKUP(A473,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E473" s="7">
-        <f>VLOOKUP(A473,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>568500</v>
       </c>
     </row>
@@ -15464,15 +14048,12 @@
         <v>16.2</v>
       </c>
       <c r="C474">
-        <f>VLOOKUP(A474,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D474">
-        <f>VLOOKUP(A474,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E474" s="7">
-        <f>VLOOKUP(A474,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>585000</v>
       </c>
     </row>
@@ -15484,15 +14065,12 @@
         <v>12.38</v>
       </c>
       <c r="C475">
-        <f>VLOOKUP(A475,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D475">
-        <f>VLOOKUP(A475,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.9</v>
       </c>
       <c r="E475" s="7">
-        <f>VLOOKUP(A475,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2250000</v>
       </c>
     </row>
@@ -15504,15 +14082,12 @@
         <v>17.36</v>
       </c>
       <c r="C476">
-        <f>VLOOKUP(A476,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D476">
-        <f>VLOOKUP(A476,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.9</v>
       </c>
       <c r="E476" s="7">
-        <f>VLOOKUP(A476,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2250000</v>
       </c>
     </row>
@@ -15524,15 +14099,12 @@
         <v>5.4</v>
       </c>
       <c r="C477">
-        <f>VLOOKUP(A477,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D477">
-        <f>VLOOKUP(A477,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.9</v>
       </c>
       <c r="E477" s="7">
-        <f>VLOOKUP(A477,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2250000</v>
       </c>
     </row>
@@ -15544,15 +14116,12 @@
         <v>5.9</v>
       </c>
       <c r="C478">
-        <f>VLOOKUP(A478,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D478">
-        <f>VLOOKUP(A478,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E478" s="7">
-        <f>VLOOKUP(A478,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>567400</v>
       </c>
     </row>
@@ -15564,15 +14133,12 @@
         <v>2.58</v>
       </c>
       <c r="C479">
-        <f>VLOOKUP(A479,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>15</v>
       </c>
       <c r="D479">
-        <f>VLOOKUP(A479,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>7.3</v>
       </c>
       <c r="E479" s="7">
-        <f>VLOOKUP(A479,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>28000000</v>
       </c>
     </row>
@@ -15584,15 +14150,12 @@
         <v>2.25</v>
       </c>
       <c r="C480">
-        <f>VLOOKUP(A480,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D480">
-        <f>VLOOKUP(A480,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="E480" s="7">
-        <f>VLOOKUP(A480,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>4800000</v>
       </c>
     </row>
@@ -15604,15 +14167,12 @@
         <v>6.75</v>
       </c>
       <c r="C481">
-        <f>VLOOKUP(A481,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>14</v>
       </c>
       <c r="D481">
-        <f>VLOOKUP(A481,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="E481" s="7">
-        <f>VLOOKUP(A481,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2000000</v>
       </c>
     </row>
@@ -15624,15 +14184,12 @@
         <v>4.76</v>
       </c>
       <c r="C482">
-        <f>VLOOKUP(A482,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D482">
-        <f>VLOOKUP(A482,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="E482" s="7">
-        <f>VLOOKUP(A482,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>6350000</v>
       </c>
     </row>
@@ -15644,15 +14201,12 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="C483">
-        <f>VLOOKUP(A483,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>14</v>
       </c>
       <c r="D483">
-        <f>VLOOKUP(A483,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.9</v>
       </c>
       <c r="E483" s="7">
-        <f>VLOOKUP(A483,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2000000</v>
       </c>
     </row>
@@ -15664,15 +14218,12 @@
         <v>5.34</v>
       </c>
       <c r="C484">
-        <f>VLOOKUP(A484,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D484">
-        <f>VLOOKUP(A484,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E484" s="7">
-        <f>VLOOKUP(A484,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>2000000</v>
       </c>
     </row>
@@ -15684,15 +14235,12 @@
         <v>4.17</v>
       </c>
       <c r="C485">
-        <f>VLOOKUP(A485,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D485">
-        <f>VLOOKUP(A485,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="E485" s="7">
-        <f>VLOOKUP(A485,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3500000</v>
       </c>
     </row>
@@ -15704,15 +14252,12 @@
         <v>2.94</v>
       </c>
       <c r="C486">
-        <f>VLOOKUP(A486,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D486">
-        <f>VLOOKUP(A486,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.6</v>
       </c>
       <c r="E486" s="7">
-        <f>VLOOKUP(A486,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>581300</v>
       </c>
     </row>
@@ -15724,15 +14269,12 @@
         <v>3.58</v>
       </c>
       <c r="C487">
-        <f>VLOOKUP(A487,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D487">
-        <f>VLOOKUP(A487,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.4</v>
       </c>
       <c r="E487" s="7">
-        <f>VLOOKUP(A487,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>557500</v>
       </c>
     </row>
@@ -15744,15 +14286,12 @@
         <v>3.96</v>
       </c>
       <c r="C488">
-        <f>VLOOKUP(A488,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D488">
-        <f>VLOOKUP(A488,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E488" s="7">
-        <f>VLOOKUP(A488,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>5975000</v>
       </c>
     </row>
@@ -15764,15 +14303,12 @@
         <v>21.6</v>
       </c>
       <c r="C489">
-        <f>VLOOKUP(A489,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D489">
-        <f>VLOOKUP(A489,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.9</v>
       </c>
       <c r="E489" s="7">
-        <f>VLOOKUP(A489,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>582900</v>
       </c>
     </row>
@@ -15784,15 +14320,12 @@
         <v>9.82</v>
       </c>
       <c r="C490">
-        <f>VLOOKUP(A490,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D490">
-        <f>VLOOKUP(A490,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.8</v>
       </c>
       <c r="E490" s="7">
-        <f>VLOOKUP(A490,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>563800</v>
       </c>
     </row>
@@ -15804,15 +14337,12 @@
         <v>5.38</v>
       </c>
       <c r="C491">
-        <f>VLOOKUP(A491,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D491">
-        <f>VLOOKUP(A491,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="E491" s="7">
-        <f>VLOOKUP(A491,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>584000</v>
       </c>
     </row>
@@ -15824,15 +14354,12 @@
         <v>9.5299999999999994</v>
       </c>
       <c r="C492">
-        <f>VLOOKUP(A492,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D492">
-        <f>VLOOKUP(A492,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.6</v>
       </c>
       <c r="E492" s="7">
-        <f>VLOOKUP(A492,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>750000</v>
       </c>
     </row>
@@ -15844,15 +14371,12 @@
         <v>7.2</v>
       </c>
       <c r="C493">
-        <f>VLOOKUP(A493,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D493">
-        <f>VLOOKUP(A493,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E493" s="7">
-        <f>VLOOKUP(A493,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>565000</v>
       </c>
     </row>
@@ -15864,15 +14388,12 @@
         <v>2.54</v>
       </c>
       <c r="C494">
-        <f>VLOOKUP(A494,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D494">
-        <f>VLOOKUP(A494,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.3</v>
       </c>
       <c r="E494" s="7">
-        <f>VLOOKUP(A494,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>5000000</v>
       </c>
     </row>
@@ -15884,15 +14405,12 @@
         <v>5.65</v>
       </c>
       <c r="C495">
-        <f>VLOOKUP(A495,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D495">
-        <f>VLOOKUP(A495,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.4</v>
       </c>
       <c r="E495" s="7">
-        <f>VLOOKUP(A495,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>557200</v>
       </c>
     </row>
@@ -15904,15 +14422,12 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="C496">
-        <f>VLOOKUP(A496,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D496">
-        <f>VLOOKUP(A496,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E496" s="7">
-        <f>VLOOKUP(A496,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1610000</v>
       </c>
     </row>
@@ -15924,15 +14439,12 @@
         <v>5.8</v>
       </c>
       <c r="C497">
-        <f>VLOOKUP(A497,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D497">
-        <f>VLOOKUP(A497,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.2</v>
       </c>
       <c r="E497" s="7">
-        <f>VLOOKUP(A497,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>9650000</v>
       </c>
     </row>
@@ -15944,15 +14456,12 @@
         <v>3.62</v>
       </c>
       <c r="C498">
-        <f>VLOOKUP(A498,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D498">
-        <f>VLOOKUP(A498,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3.3</v>
       </c>
       <c r="E498" s="7">
-        <f>VLOOKUP(A498,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>561400</v>
       </c>
     </row>
@@ -15964,15 +14473,12 @@
         <v>1.88</v>
       </c>
       <c r="C499">
-        <f>VLOOKUP(A499,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D499">
-        <f>VLOOKUP(A499,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3.2</v>
       </c>
       <c r="E499" s="7">
-        <f>VLOOKUP(A499,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1150000</v>
       </c>
     </row>
@@ -15984,15 +14490,12 @@
         <v>8.69</v>
       </c>
       <c r="C500">
-        <f>VLOOKUP(A500,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D500">
-        <f>VLOOKUP(A500,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.6</v>
       </c>
       <c r="E500" s="7">
-        <f>VLOOKUP(A500,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>565000</v>
       </c>
     </row>
@@ -16004,15 +14507,12 @@
         <v>7.98</v>
       </c>
       <c r="C501">
-        <f>VLOOKUP(A501,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D501">
-        <f>VLOOKUP(A501,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E501" s="7">
-        <f>VLOOKUP(A501,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>567500</v>
       </c>
     </row>
@@ -16024,15 +14524,12 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="C502">
-        <f>VLOOKUP(A502,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D502">
-        <f>VLOOKUP(A502,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E502" s="7">
-        <f>VLOOKUP(A502,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>567500</v>
       </c>
     </row>
@@ -16044,15 +14541,12 @@
         <v>6.75</v>
       </c>
       <c r="C503">
-        <f>VLOOKUP(A503,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D503">
-        <f>VLOOKUP(A503,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E503" s="7">
-        <f>VLOOKUP(A503,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>567500</v>
       </c>
     </row>
@@ -16064,15 +14558,12 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="C504">
-        <f>VLOOKUP(A504,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D504">
-        <f>VLOOKUP(A504,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="E504" s="7">
-        <f>VLOOKUP(A504,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>1375000</v>
       </c>
     </row>
@@ -16084,15 +14575,12 @@
         <v>6.8</v>
       </c>
       <c r="C505">
-        <f>VLOOKUP(A505,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D505">
-        <f>VLOOKUP(A505,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E505" s="7">
-        <f>VLOOKUP(A505,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>559000</v>
       </c>
     </row>
@@ -16104,15 +14592,12 @@
         <v>4.13</v>
       </c>
       <c r="C506">
-        <f>VLOOKUP(A506,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D506">
-        <f>VLOOKUP(A506,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>1.3</v>
       </c>
       <c r="E506" s="7">
-        <f>VLOOKUP(A506,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>563400</v>
       </c>
     </row>
@@ -16124,15 +14609,12 @@
         <v>1.19</v>
       </c>
       <c r="C507">
-        <f>VLOOKUP(A507,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D507">
-        <f>VLOOKUP(A507,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E507" s="7">
-        <f>VLOOKUP(A507,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>3062000</v>
       </c>
     </row>
@@ -16143,16 +14625,13 @@
       <c r="B508">
         <v>10.8</v>
       </c>
-      <c r="C508" t="str">
-        <f>VLOOKUP(A508,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
-        <v>1st</v>
+      <c r="C508" t="s">
+        <v>349</v>
       </c>
       <c r="D508">
-        <f>VLOOKUP(A508,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.7</v>
       </c>
       <c r="E508" s="7">
-        <f>VLOOKUP(A508,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>555000</v>
       </c>
     </row>
@@ -16164,15 +14643,12 @@
         <v>6.91</v>
       </c>
       <c r="C509">
-        <f>VLOOKUP(A509,'Lookup Tables'!$A$2:$D$1568,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="D509">
-        <f>VLOOKUP(A509,'Lookup Tables'!$A$2:$D$1568,3,FALSE)</f>
         <v>-0.3</v>
       </c>
       <c r="E509" s="7">
-        <f>VLOOKUP(A509,'Lookup Tables'!$A$2:$D$1568,4,FALSE)</f>
         <v>25000000</v>
       </c>
     </row>
